--- a/Professor/Material de Acompanhamento_v3.xlsx
+++ b/Professor/Material de Acompanhamento_v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="17" r:id="rId1"/>
@@ -17,17 +17,18 @@
     <sheet name="22" sheetId="2" r:id="rId3"/>
     <sheet name="23" sheetId="4" r:id="rId4"/>
     <sheet name="24" sheetId="3" r:id="rId5"/>
-    <sheet name="28 " sheetId="10" r:id="rId6"/>
-    <sheet name="29" sheetId="12" r:id="rId7"/>
-    <sheet name="30" sheetId="11" r:id="rId8"/>
-    <sheet name="31" sheetId="13" r:id="rId9"/>
-    <sheet name="33" sheetId="6" r:id="rId10"/>
-    <sheet name="35" sheetId="5" r:id="rId11"/>
-    <sheet name="37" sheetId="7" r:id="rId12"/>
+    <sheet name="31" sheetId="13" r:id="rId6"/>
+    <sheet name="37" sheetId="7" r:id="rId7"/>
+    <sheet name="33" sheetId="6" r:id="rId8"/>
+    <sheet name="28 " sheetId="10" r:id="rId9"/>
+    <sheet name="29" sheetId="12" r:id="rId10"/>
+    <sheet name="30" sheetId="11" r:id="rId11"/>
+    <sheet name="36" sheetId="5" r:id="rId12"/>
     <sheet name="40 " sheetId="8" r:id="rId13"/>
     <sheet name="41" sheetId="9" r:id="rId14"/>
     <sheet name="44" sheetId="14" r:id="rId15"/>
     <sheet name="46" sheetId="15" r:id="rId16"/>
+    <sheet name="47" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="175">
   <si>
     <t>Lista de Compras</t>
   </si>
@@ -586,6 +587,9 @@
   </si>
   <si>
     <t>Duração</t>
+  </si>
+  <si>
+    <t>Fazer Exercicio do Procv usando Banco de dados Forncedor x Centro de Custo</t>
   </si>
 </sst>
 </file>
@@ -1773,68 +1777,42 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="G3" s="12">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="I3" s="12">
+        <v>0.49305555555555558</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1844,10 +1822,52 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="84.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,137 +2092,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="27" width="6.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K3" s="12">
-        <v>0.63194444444444442</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>9.6666666666666696</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>12.6666666666667</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>15.6666666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>18.6666666666667</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>21.6666666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>24.6666666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>27.6666666666667</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,7 +2141,7 @@
   <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2342,30 +2237,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B6"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="92.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2420,6 +2338,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2518,10 +2439,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2578,10 +2502,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="B1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2987,10 +2914,255 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="B1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="I3" s="12">
+        <v>0.50347222222222221</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B2:K30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="27" width="6.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="12">
+        <v>0.63194444444444442</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>9.6666666666666696</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>12.6666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15.6666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>18.6666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>21.6666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>24.6666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>27.6666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="G3" s="12">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3014,7 +3186,7 @@
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="13">
         <f ca="1">NOW()</f>
-        <v>43399.819546064813</v>
+        <v>43403.595805439814</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -3045,133 +3217,6 @@
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-      <c r="I3" s="12">
-        <v>0.49305555555555558</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="84.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-      <c r="I3" s="12">
-        <v>0.50347222222222221</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Professor/Material de Acompanhamento_v3.xlsx
+++ b/Professor/Material de Acompanhamento_v3.xlsx
@@ -5,30 +5,31 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\Professor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="1" activeTab="15"/>
   </bookViews>
   <sheets>
-    <sheet name="geral" sheetId="17" r:id="rId1"/>
-    <sheet name="Slide 7" sheetId="16" r:id="rId2"/>
-    <sheet name="22" sheetId="2" r:id="rId3"/>
-    <sheet name="23" sheetId="4" r:id="rId4"/>
-    <sheet name="24" sheetId="3" r:id="rId5"/>
-    <sheet name="31" sheetId="13" r:id="rId6"/>
-    <sheet name="37" sheetId="7" r:id="rId7"/>
-    <sheet name="33" sheetId="6" r:id="rId8"/>
-    <sheet name="28 " sheetId="10" r:id="rId9"/>
-    <sheet name="29" sheetId="12" r:id="rId10"/>
-    <sheet name="30" sheetId="11" r:id="rId11"/>
-    <sheet name="36" sheetId="5" r:id="rId12"/>
-    <sheet name="40 " sheetId="8" r:id="rId13"/>
-    <sheet name="41" sheetId="9" r:id="rId14"/>
-    <sheet name="44" sheetId="14" r:id="rId15"/>
-    <sheet name="46" sheetId="15" r:id="rId16"/>
-    <sheet name="47" sheetId="18" r:id="rId17"/>
+    <sheet name="Aula 1" sheetId="17" state="hidden" r:id="rId1"/>
+    <sheet name="Aula2" sheetId="19" r:id="rId2"/>
+    <sheet name="Slide 7" sheetId="16" state="hidden" r:id="rId3"/>
+    <sheet name="22" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="23" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="24" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="31" sheetId="13" state="hidden" r:id="rId7"/>
+    <sheet name="37 " sheetId="7" state="hidden" r:id="rId8"/>
+    <sheet name="33" sheetId="6" state="hidden" r:id="rId9"/>
+    <sheet name="37" sheetId="20" r:id="rId10"/>
+    <sheet name="40" sheetId="5" r:id="rId11"/>
+    <sheet name="29" sheetId="12" state="hidden" r:id="rId12"/>
+    <sheet name="40 " sheetId="8" state="hidden" r:id="rId13"/>
+    <sheet name="44" sheetId="9" r:id="rId14"/>
+    <sheet name="46" sheetId="15" r:id="rId15"/>
+    <sheet name="47" sheetId="22" r:id="rId16"/>
+    <sheet name="49" sheetId="14" r:id="rId17"/>
+    <sheet name="51" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="223">
   <si>
     <t>Lista de Compras</t>
   </si>
@@ -303,39 +304,9 @@
     <t>fazer junto</t>
   </si>
   <si>
-    <t>fazer um arquivo consolidado de Ano, ou trimestre</t>
-  </si>
-  <si>
-    <t>usar o exercicio 37</t>
-  </si>
-  <si>
-    <t>Mostrar calculo com hora a funções com parametero opcional</t>
-  </si>
-  <si>
-    <t>SOMA</t>
-  </si>
-  <si>
-    <t>AGORA</t>
-  </si>
-  <si>
-    <t>HOJE</t>
-  </si>
-  <si>
-    <t>CONTAR</t>
-  </si>
-  <si>
-    <t>...ABRIR arquivo CC Custo x Fornecedor.</t>
-  </si>
-  <si>
-    <t>30 min</t>
-  </si>
-  <si>
     <t>Usar o arquivo FONCEDOR POR CANAL</t>
   </si>
   <si>
-    <t>Usar o arquivo FONCEDOR POR CANAL para demonstrar diferença entre OCULTAR E DELETAR</t>
-  </si>
-  <si>
     <t>10 min</t>
   </si>
   <si>
@@ -369,12 +340,6 @@
     <t>fazer com Eles Usar Arquivos de Fornecedores</t>
   </si>
   <si>
-    <t>RECORTAR E INSERIR COLUNA</t>
-  </si>
-  <si>
-    <t>O MESMO PARA LINHA</t>
-  </si>
-  <si>
     <t>DATADIF</t>
   </si>
   <si>
@@ -475,9 +440,6 @@
   </si>
   <si>
     <t>Correção</t>
-  </si>
-  <si>
-    <t>MEDIA</t>
   </si>
   <si>
     <t>Slide abre forncedores e errros</t>
@@ -589,7 +551,190 @@
     <t>Duração</t>
   </si>
   <si>
-    <t>Fazer Exercicio do Procv usando Banco de dados Forncedor x Centro de Custo</t>
+    <t>Relembrar ultima aula</t>
+  </si>
+  <si>
+    <t>Usar o DRE para mostrar a formatação</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Linha tracejada</t>
+  </si>
+  <si>
+    <t>- Linha COLORIDA GROSSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Explicar Diferença OCULTAR</t>
+  </si>
+  <si>
+    <t>- Agrupar Mostrar Linha DIVIDENDO</t>
+  </si>
+  <si>
+    <t>Ecplicar auto- agrupar</t>
+  </si>
+  <si>
+    <t>Mostrar SOMA</t>
+  </si>
+  <si>
+    <t>Mostrar MEDIA</t>
+  </si>
+  <si>
+    <t>Mostrar e Fazer com Eles o Exercicios debanco de Funcioinarios</t>
+  </si>
+  <si>
+    <t>Exercicio Celular</t>
+  </si>
+  <si>
+    <t>Exercicio Caminhoes (Formatação e Figuras</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - REFORÇAR FORAMTAÇÂO PERSONALIZADA</t>
+  </si>
+  <si>
+    <t>COMENTAR FORMULA DATADIF</t>
+  </si>
+  <si>
+    <t>FUNÇÃO ANINHADA</t>
+  </si>
+  <si>
+    <t>Explicar o Execicios</t>
+  </si>
+  <si>
+    <t>Exercicios Fluxo de Caixa</t>
+  </si>
+  <si>
+    <t>FAZER COPIAS DO DRE 12 x</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Renomear</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Exluir</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ' - Ocultar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Mostrar que tudo o que pode fazer linha e coluna pode fazer com PLANILHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  Fazer um consolidador</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Mostrar que onde inicia um pode continuar o outro usar o Arquivo do SAL</t>
+  </si>
+  <si>
+    <t>PEDIR ATINGIR META &gt;&gt;&gt;MUDANDO PREÇO (MKp de 40%)</t>
+  </si>
+  <si>
+    <t>Demonstração Multiplas Planilhas</t>
+  </si>
+  <si>
+    <t>MOSTRAR FORMATAO EM GRUPO</t>
+  </si>
+  <si>
+    <t>Atv 2 - Budget Despesas</t>
+  </si>
+  <si>
+    <t>USAR SOMENTE PROCV</t>
+  </si>
+  <si>
+    <t>PROCV</t>
+  </si>
+  <si>
+    <t>EXERCICIO PROCV</t>
+  </si>
+  <si>
+    <t>CORRECAO</t>
+  </si>
+  <si>
+    <t>Meida-se/Cont.se</t>
+  </si>
+  <si>
+    <t>Usar base de forncedores</t>
+  </si>
+  <si>
+    <t>- Mostrar ELIMINAR DUPLICATAS</t>
+  </si>
+  <si>
+    <t>-Mostrar MEDIASE</t>
+  </si>
+  <si>
+    <t>-MOSTRAR CONT.SE</t>
+  </si>
+  <si>
+    <t>-Mostrar SOMASE</t>
+  </si>
+  <si>
+    <t>REFORCAR O EXEMPLO COM O EXERCICIOS DO FLUXO DE CAIXA - PEDIR PARA ELE FAZEREM 1 ANO E CONSOLIDAR</t>
+  </si>
+  <si>
+    <t>PEIDR PARA CONSOLIDAR ATALHOS</t>
+  </si>
+  <si>
+    <t>MOSTRAR CLASSIFICAÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 1 Nivel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 - Níveis</t>
+  </si>
+  <si>
+    <t>Treinamento Comercial</t>
+  </si>
+  <si>
+    <t>Marketing &amp; Publicidade</t>
+  </si>
+  <si>
+    <t>Despesas Juridicas</t>
+  </si>
+  <si>
+    <t>Despesas de Viagem</t>
+  </si>
+  <si>
+    <t>Consultorias e Assessorias</t>
+  </si>
+  <si>
+    <t>Serviços terceirizados</t>
+  </si>
+  <si>
+    <t>Doações</t>
+  </si>
+  <si>
+    <t>Telefonia e intemet</t>
+  </si>
+  <si>
+    <t>Impostos e taxas</t>
+  </si>
+  <si>
+    <t>Salário</t>
+  </si>
+  <si>
+    <t>Campanhas intemas</t>
+  </si>
+  <si>
+    <t>Total do Orçamento</t>
+  </si>
+  <si>
+    <t>Vl Filial A</t>
+  </si>
+  <si>
+    <t>Mostar COLAR ESPECIAL Multiplicação</t>
+  </si>
+  <si>
+    <t>FILIA B</t>
+  </si>
+  <si>
+    <t>VL FILIAC</t>
+  </si>
+  <si>
+    <t>%FILIAL A</t>
+  </si>
+  <si>
+    <t>%FILIAL B</t>
+  </si>
+  <si>
+    <t>%FILIAL C</t>
   </si>
 </sst>
 </file>
@@ -633,7 +778,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -664,6 +809,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -677,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -696,6 +859,13 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,30 +1162,30 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F2" s="15" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1033,7 +1203,7 @@
         <v>6.9444444444444753E-3</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1052,10 +1222,10 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1073,7 +1243,7 @@
         <v>1.3888888888888951E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F6" s="15">
         <v>10</v>
@@ -1082,7 +1252,7 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1100,7 +1270,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F7" s="15">
         <v>17</v>
@@ -1124,7 +1294,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F8" s="15">
         <v>22</v>
@@ -1148,7 +1318,7 @@
         <v>6.9444444444444753E-3</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F9" s="15">
         <v>23</v>
@@ -1172,7 +1342,7 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F10" s="15">
         <v>24</v>
@@ -1196,7 +1366,7 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F11" s="15">
         <v>25</v>
@@ -1220,7 +1390,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E12" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F12" s="15">
         <v>25</v>
@@ -1244,7 +1414,7 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F13" s="15">
         <v>26</v>
@@ -1269,7 +1439,7 @@
         <v>6.9444444444444753E-3</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F14" s="15">
         <v>26</v>
@@ -1293,7 +1463,7 @@
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F15" s="15">
         <v>28</v>
@@ -1317,7 +1487,7 @@
         <v>3.4722222222222099E-3</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="F16" s="15">
         <v>30</v>
@@ -1341,7 +1511,7 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1359,7 +1529,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E18" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F18" s="15">
         <v>31</v>
@@ -1383,7 +1553,7 @@
         <v>1.041666666666663E-2</v>
       </c>
       <c r="E19" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="F19" s="15">
         <v>32</v>
@@ -1407,7 +1577,7 @@
         <v>3.4722222222223209E-3</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1425,7 +1595,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E21" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F21" s="15">
         <v>33</v>
@@ -1449,7 +1619,7 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E22" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F22" s="15">
         <v>34</v>
@@ -1473,7 +1643,7 @@
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="E23" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F23" s="15">
         <v>34</v>
@@ -1497,7 +1667,7 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E24" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="F24" s="15">
         <v>35</v>
@@ -1521,7 +1691,7 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E25" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F25" s="15">
         <v>36</v>
@@ -1545,7 +1715,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F26" s="15">
         <v>36</v>
@@ -1569,7 +1739,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F27" s="15">
         <v>37</v>
@@ -1593,7 +1763,7 @@
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="E28" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="F28" s="15">
         <v>37</v>
@@ -1617,7 +1787,7 @@
         <v>1.041666666666663E-2</v>
       </c>
       <c r="E29" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F29" s="15">
         <v>37</v>
@@ -1641,7 +1811,7 @@
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="E30" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F30" s="15">
         <v>38</v>
@@ -1665,7 +1835,7 @@
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F31" s="15">
         <v>38</v>
@@ -1689,7 +1859,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E32" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="F32" s="15">
         <v>40</v>
@@ -1713,7 +1883,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F33" s="15">
         <v>41</v>
@@ -1737,7 +1907,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="E34" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F34" s="15">
         <v>42</v>
@@ -1761,7 +1931,7 @@
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="E35" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F35" s="15">
         <v>42</v>
@@ -1777,43 +1947,60 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J6"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-      <c r="I3" s="12">
-        <v>0.49305555555555558</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>100</v>
-      </c>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1822,52 +2009,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="84.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,11 +2033,22 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="21" t="s">
+        <v>173</v>
+      </c>
       <c r="F3" s="12">
         <v>0.59722222222222221</v>
       </c>
     </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="F6" s="12">
         <v>0.625</v>
       </c>
@@ -2084,7 +2240,52 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="I3" s="12">
+        <v>0.49305555555555558</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2110,17 +2311,17 @@
         <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="I4" s="12">
         <v>0.65972222222222221</v>
@@ -2128,7 +2329,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2138,38 +2339,95 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I8"/>
+  <dimension ref="B2:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="110.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="I2">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
       <c r="I3" s="12">
         <v>0.67361111111111116</v>
       </c>
     </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+    </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>168</v>
+      <c r="B5" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>171</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="21" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2179,66 +2437,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2253,17 +2455,464 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>117</v>
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>900</v>
+      </c>
+      <c r="E3">
+        <v>450</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24">
+        <f>C3/SUM($C3:$E3)</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="H3" s="24">
+        <f t="shared" ref="H3:H15" si="0">D3/SUM($C3:$E3)</f>
+        <v>0.62068965517241381</v>
+      </c>
+      <c r="I3" s="24">
+        <f t="shared" ref="I3:I15" si="1">E3/SUM($C3:$E3)</f>
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="J3" s="24">
+        <f>SUM(G3:I3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4">
+        <v>800</v>
+      </c>
+      <c r="D4">
+        <v>900</v>
+      </c>
+      <c r="E4">
+        <v>450</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24">
+        <f t="shared" ref="G4:G15" si="2">C4/SUM($C4:$E4)</f>
+        <v>0.37209302325581395</v>
+      </c>
+      <c r="H4" s="24">
+        <f t="shared" si="0"/>
+        <v>0.41860465116279072</v>
+      </c>
+      <c r="I4" s="24">
+        <f t="shared" si="1"/>
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="J4" s="24">
+        <f t="shared" ref="J4:J15" si="3">SUM(G4:I4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5">
+        <v>800</v>
+      </c>
+      <c r="D5">
+        <v>900</v>
+      </c>
+      <c r="E5">
+        <v>450</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24">
+        <f t="shared" si="2"/>
+        <v>0.37209302325581395</v>
+      </c>
+      <c r="H5" s="24">
+        <f t="shared" si="0"/>
+        <v>0.41860465116279072</v>
+      </c>
+      <c r="I5" s="24">
+        <f t="shared" si="1"/>
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="J5" s="24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6">
+        <v>800</v>
+      </c>
+      <c r="D6">
+        <v>900</v>
+      </c>
+      <c r="E6">
+        <v>450</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24">
+        <f t="shared" si="2"/>
+        <v>0.37209302325581395</v>
+      </c>
+      <c r="H6" s="24">
+        <f t="shared" si="0"/>
+        <v>0.41860465116279072</v>
+      </c>
+      <c r="I6" s="24">
+        <f t="shared" si="1"/>
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="J6" s="24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7">
+        <v>800</v>
+      </c>
+      <c r="D7">
+        <v>900</v>
+      </c>
+      <c r="E7">
+        <v>450</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24">
+        <f t="shared" si="2"/>
+        <v>0.37209302325581395</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.41860465116279072</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="1"/>
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8">
+        <v>800</v>
+      </c>
+      <c r="D8">
+        <v>900</v>
+      </c>
+      <c r="E8">
+        <v>450</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24">
+        <f t="shared" si="2"/>
+        <v>0.37209302325581395</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="0"/>
+        <v>0.41860465116279072</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="1"/>
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="J8" s="24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9">
+        <v>800</v>
+      </c>
+      <c r="D9">
+        <v>900</v>
+      </c>
+      <c r="E9">
+        <v>450</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24">
+        <f t="shared" si="2"/>
+        <v>0.37209302325581395</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="0"/>
+        <v>0.41860465116279072</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="1"/>
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="J9" s="24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10">
+        <v>800</v>
+      </c>
+      <c r="D10">
+        <v>900</v>
+      </c>
+      <c r="E10">
+        <v>450</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24">
+        <f t="shared" si="2"/>
+        <v>0.37209302325581395</v>
+      </c>
+      <c r="H10" s="24">
+        <f t="shared" si="0"/>
+        <v>0.41860465116279072</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="1"/>
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="J10" s="24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11">
+        <v>800</v>
+      </c>
+      <c r="D11">
+        <v>900</v>
+      </c>
+      <c r="E11">
+        <v>450</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24">
+        <f t="shared" si="2"/>
+        <v>0.37209302325581395</v>
+      </c>
+      <c r="H11" s="24">
+        <f t="shared" si="0"/>
+        <v>0.41860465116279072</v>
+      </c>
+      <c r="I11" s="24">
+        <f t="shared" si="1"/>
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="J11" s="24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12">
+        <v>800</v>
+      </c>
+      <c r="D12">
+        <v>900</v>
+      </c>
+      <c r="E12">
+        <v>450</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24">
+        <f t="shared" si="2"/>
+        <v>0.37209302325581395</v>
+      </c>
+      <c r="H12" s="24">
+        <f t="shared" si="0"/>
+        <v>0.41860465116279072</v>
+      </c>
+      <c r="I12" s="24">
+        <f t="shared" si="1"/>
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="J12" s="24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13">
+        <v>800</v>
+      </c>
+      <c r="D13">
+        <v>900</v>
+      </c>
+      <c r="E13">
+        <v>450</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24">
+        <f t="shared" si="2"/>
+        <v>0.37209302325581395</v>
+      </c>
+      <c r="H13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.41860465116279072</v>
+      </c>
+      <c r="I13" s="24">
+        <f t="shared" si="1"/>
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="J13" s="24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14">
+        <v>800</v>
+      </c>
+      <c r="D14">
+        <v>900</v>
+      </c>
+      <c r="E14">
+        <v>450</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24">
+        <f t="shared" si="2"/>
+        <v>0.37209302325581395</v>
+      </c>
+      <c r="H14" s="24">
+        <f t="shared" si="0"/>
+        <v>0.41860465116279072</v>
+      </c>
+      <c r="I14" s="24">
+        <f t="shared" si="1"/>
+        <v>0.20930232558139536</v>
+      </c>
+      <c r="J14" s="24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>SUM(C3:C14)</f>
+        <v>8900</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D3:D14)</f>
+        <v>10800</v>
+      </c>
+      <c r="E15">
+        <f>SUM(E3:E14)</f>
+        <v>5400</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24">
+        <f t="shared" si="2"/>
+        <v>0.35458167330677293</v>
+      </c>
+      <c r="H15" s="24">
+        <f t="shared" si="0"/>
+        <v>0.4302788844621514</v>
+      </c>
+      <c r="I15" s="24">
+        <f t="shared" si="1"/>
+        <v>0.2151394422310757</v>
+      </c>
+      <c r="J15" s="24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="21" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2273,17 +2922,116 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="92.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>174</v>
+      <c r="B2" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2292,6 +3040,498 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="50.85546875" style="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="D4" s="12">
+        <f>C4-B4</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="B5" s="12">
+        <f>C4</f>
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" ref="D5:D35" si="0">C5-B5</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="15">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="B6" s="12">
+        <f>C5</f>
+        <v>0.375</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="15">
+        <v>39</v>
+      </c>
+      <c r="G6" s="15">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="15">
+        <v>40</v>
+      </c>
+      <c r="G7" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.4375</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="15">
+        <v>41</v>
+      </c>
+      <c r="G8" s="15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="B9" s="12">
+        <f>C8</f>
+        <v>0.4375</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="B10" s="12">
+        <f t="shared" ref="B10:B35" si="1">C9</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F10" s="15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="B11" s="12">
+        <f t="shared" si="1"/>
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222265E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="15">
+        <v>44</v>
+      </c>
+      <c r="G11" s="15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B12" s="12">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="15">
+        <v>25</v>
+      </c>
+      <c r="G12" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="B13" s="12">
+        <f t="shared" si="1"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="0"/>
+        <v>4.861111111111116E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="15">
+        <v>26</v>
+      </c>
+      <c r="G13" s="15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="B14" s="12">
+        <f t="shared" si="1"/>
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="15">
+        <v>26</v>
+      </c>
+      <c r="G14" s="15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="B15" s="12">
+        <f t="shared" si="1"/>
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="15">
+        <v>28</v>
+      </c>
+      <c r="G15" s="15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="B16" s="12">
+        <f t="shared" si="1"/>
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16" s="15">
+        <v>30</v>
+      </c>
+      <c r="G16" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="B17" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G10"/>
   <sheetViews>
@@ -2303,12 +3543,12 @@
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -2318,17 +3558,17 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2336,7 +3576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -2371,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2437,7 +3677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -2481,18 +3721,18 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2500,7 +3740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -2912,7 +4152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -2930,13 +4170,13 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="J1" s="12"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -2947,7 +4187,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2955,7 +4195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -2976,7 +4216,7 @@
         <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -3000,7 +4240,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -3060,12 +4300,12 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -3083,7 +4323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3098,12 +4338,12 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="14" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F1" s="14"/>
     </row>
@@ -3155,71 +4395,4 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="12">
-        <v>0.47916666666666669</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="13">
-        <f ca="1">NOW()</f>
-        <v>43403.595805439814</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/Professor/Material de Acompanhamento_v3.xlsx
+++ b/Professor/Material de Acompanhamento_v3.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\Professor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\fenrir\Professor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="1" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="9" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Aula 1" sheetId="17" state="hidden" r:id="rId1"/>
-    <sheet name="Aula2" sheetId="19" r:id="rId2"/>
+    <sheet name="Aula2" sheetId="19" state="hidden" r:id="rId2"/>
     <sheet name="Slide 7" sheetId="16" state="hidden" r:id="rId3"/>
     <sheet name="22" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="23" sheetId="4" state="hidden" r:id="rId5"/>
@@ -21,15 +21,16 @@
     <sheet name="31" sheetId="13" state="hidden" r:id="rId7"/>
     <sheet name="37 " sheetId="7" state="hidden" r:id="rId8"/>
     <sheet name="33" sheetId="6" state="hidden" r:id="rId9"/>
-    <sheet name="37" sheetId="20" r:id="rId10"/>
-    <sheet name="40" sheetId="5" r:id="rId11"/>
-    <sheet name="29" sheetId="12" state="hidden" r:id="rId12"/>
-    <sheet name="40 " sheetId="8" state="hidden" r:id="rId13"/>
-    <sheet name="44" sheetId="9" r:id="rId14"/>
-    <sheet name="46" sheetId="15" r:id="rId15"/>
-    <sheet name="47" sheetId="22" r:id="rId16"/>
-    <sheet name="49" sheetId="14" r:id="rId17"/>
-    <sheet name="51" sheetId="21" r:id="rId18"/>
+    <sheet name="Aula 3" sheetId="23" r:id="rId10"/>
+    <sheet name="37" sheetId="20" state="hidden" r:id="rId11"/>
+    <sheet name="40" sheetId="5" state="hidden" r:id="rId12"/>
+    <sheet name="29" sheetId="12" state="hidden" r:id="rId13"/>
+    <sheet name="40 " sheetId="8" state="hidden" r:id="rId14"/>
+    <sheet name="44" sheetId="9" state="hidden" r:id="rId15"/>
+    <sheet name="46" sheetId="15" r:id="rId16"/>
+    <sheet name="47" sheetId="22" r:id="rId17"/>
+    <sheet name="49" sheetId="14" r:id="rId18"/>
+    <sheet name="51" sheetId="21" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="225">
   <si>
     <t>Lista de Compras</t>
   </si>
@@ -350,15 +351,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - Fazer um exemplo de Busca Venda Mês a mês (usar referencia celula ao inves de numeroda coluna)</t>
-  </si>
-  <si>
-    <t>Baixar planilha do Totus que esta organizado por data e classfiicar por valor para descobrir a maior NF</t>
-  </si>
-  <si>
-    <t>Depois classficair lançamento por Data</t>
-  </si>
-  <si>
-    <t>usar em conjunto com Criar lista persolizada de empresa</t>
   </si>
   <si>
     <t xml:space="preserve">Explicar PNL : de cada de 1970 no EUA por   Richard Bandler e John Grinder </t>
@@ -650,9 +642,6 @@
     <t>Meida-se/Cont.se</t>
   </si>
   <si>
-    <t>Usar base de forncedores</t>
-  </si>
-  <si>
     <t>- Mostrar ELIMINAR DUPLICATAS</t>
   </si>
   <si>
@@ -719,9 +708,6 @@
     <t>Vl Filial A</t>
   </si>
   <si>
-    <t>Mostar COLAR ESPECIAL Multiplicação</t>
-  </si>
-  <si>
     <t>FILIA B</t>
   </si>
   <si>
@@ -735,6 +721,27 @@
   </si>
   <si>
     <t>%FILIAL C</t>
+  </si>
+  <si>
+    <t>Pedir para abrirem FLUXO DE CAIXA CORRIGIDO</t>
+  </si>
+  <si>
+    <t>MOSTRAR CANTO COM PREVIA DE FORMULAS</t>
+  </si>
+  <si>
+    <t>Mostrar Soma e Media tridimensional - FORMATAÇÂO</t>
+  </si>
+  <si>
+    <t>Explicar FORMULA 3D e Formtatação</t>
+  </si>
+  <si>
+    <t>EXERCICIO Budget</t>
+  </si>
+  <si>
+    <t>COR DA GUIA</t>
+  </si>
+  <si>
+    <t>Usar base de VENDAS</t>
   </si>
 </sst>
 </file>
@@ -1162,30 +1169,30 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F2" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" t="s">
         <v>115</v>
-      </c>
-      <c r="C3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1203,7 +1210,7 @@
         <v>6.9444444444444753E-3</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1222,10 +1229,10 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1243,7 +1250,7 @@
         <v>1.3888888888888951E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F6" s="15">
         <v>10</v>
@@ -1252,7 +1259,7 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1270,7 +1277,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F7" s="15">
         <v>17</v>
@@ -1294,7 +1301,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F8" s="15">
         <v>22</v>
@@ -1318,7 +1325,7 @@
         <v>6.9444444444444753E-3</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F9" s="15">
         <v>23</v>
@@ -1342,7 +1349,7 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F10" s="15">
         <v>24</v>
@@ -1366,7 +1373,7 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F11" s="15">
         <v>25</v>
@@ -1390,7 +1397,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F12" s="15">
         <v>25</v>
@@ -1414,7 +1421,7 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F13" s="15">
         <v>26</v>
@@ -1439,7 +1446,7 @@
         <v>6.9444444444444753E-3</v>
       </c>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F14" s="15">
         <v>26</v>
@@ -1463,7 +1470,7 @@
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F15" s="15">
         <v>28</v>
@@ -1487,7 +1494,7 @@
         <v>3.4722222222222099E-3</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F16" s="15">
         <v>30</v>
@@ -1511,7 +1518,7 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1529,7 +1536,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F18" s="15">
         <v>31</v>
@@ -1553,7 +1560,7 @@
         <v>1.041666666666663E-2</v>
       </c>
       <c r="E19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F19" s="15">
         <v>32</v>
@@ -1577,7 +1584,7 @@
         <v>3.4722222222223209E-3</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1595,7 +1602,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F21" s="15">
         <v>33</v>
@@ -1619,7 +1626,7 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F22" s="15">
         <v>34</v>
@@ -1643,7 +1650,7 @@
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F23" s="15">
         <v>34</v>
@@ -1667,7 +1674,7 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F24" s="15">
         <v>35</v>
@@ -1691,7 +1698,7 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F25" s="15">
         <v>36</v>
@@ -1715,7 +1722,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F26" s="15">
         <v>36</v>
@@ -1739,7 +1746,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F27" s="15">
         <v>37</v>
@@ -1763,7 +1770,7 @@
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="E28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F28" s="15">
         <v>37</v>
@@ -1787,7 +1794,7 @@
         <v>1.041666666666663E-2</v>
       </c>
       <c r="E29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F29" s="15">
         <v>37</v>
@@ -1811,7 +1818,7 @@
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="E30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F30" s="15">
         <v>38</v>
@@ -1835,7 +1842,7 @@
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="E31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F31" s="15">
         <v>38</v>
@@ -1859,7 +1866,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F32" s="15">
         <v>40</v>
@@ -1883,7 +1890,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E33" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F33" s="15">
         <v>41</v>
@@ -1907,7 +1914,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="E34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F34" s="15">
         <v>42</v>
@@ -1931,7 +1938,7 @@
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="E35" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F35" s="15">
         <v>42</v>
@@ -1947,10 +1954,505 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="50.85546875" style="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="D4" s="12">
+        <f>C4-B4</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="B5" s="12">
+        <f>C4</f>
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" ref="D5:D17" si="0">C5-B5</f>
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="15">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="B6" s="12">
+        <f>C5</f>
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="15">
+        <v>39</v>
+      </c>
+      <c r="G6" s="15">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="15">
+        <v>49</v>
+      </c>
+      <c r="G7" s="15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.4375</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="15">
+        <v>41</v>
+      </c>
+      <c r="G8" s="15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="B9" s="12">
+        <f>C8</f>
+        <v>0.4375</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="B10" s="12">
+        <f t="shared" ref="B10:B17" si="1">C9</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="B11" s="12">
+        <f t="shared" si="1"/>
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222265E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11" s="15">
+        <v>44</v>
+      </c>
+      <c r="G11" s="15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B12" s="12">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="15">
+        <v>25</v>
+      </c>
+      <c r="G12" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="B13" s="12">
+        <f t="shared" si="1"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="0"/>
+        <v>4.861111111111116E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13" s="15">
+        <v>26</v>
+      </c>
+      <c r="G13" s="15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="B14" s="12">
+        <f t="shared" si="1"/>
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="15">
+        <v>26</v>
+      </c>
+      <c r="G14" s="15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="B15" s="12">
+        <f t="shared" si="1"/>
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15" s="15">
+        <v>28</v>
+      </c>
+      <c r="G15" s="15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="B16" s="12">
+        <f t="shared" si="1"/>
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="15">
+        <v>30</v>
+      </c>
+      <c r="G16" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="B17" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,7 +2462,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H2" t="s">
         <v>91</v>
@@ -1968,37 +2470,37 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -2007,12 +2509,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="B2:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,7 +2539,7 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F3" s="12">
         <v>0.59722222222222221</v>
@@ -2042,12 +2547,12 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F6" s="12">
         <v>0.625</v>
@@ -2248,7 +2753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J6"/>
   <sheetViews>
@@ -2293,7 +2798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I5"/>
   <sheetViews>
@@ -2316,12 +2821,12 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I4" s="12">
         <v>0.65972222222222221</v>
@@ -2329,7 +2834,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2337,12 +2842,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="B2:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2352,7 +2860,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I2">
         <v>15</v>
@@ -2365,7 +2873,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E4">
         <v>15</v>
@@ -2373,7 +2881,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -2381,22 +2889,22 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -2404,12 +2912,12 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -2417,17 +2925,17 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2435,12 +2943,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B6"/>
+  <dimension ref="B6:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,24 +2956,29 @@
     <col min="2" max="2" width="92.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>104</v>
-      </c>
-    </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>105</v>
+      <c r="B6" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2473,12 +2986,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2489,27 +3002,27 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" t="s">
         <v>216</v>
       </c>
-      <c r="D2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G2" t="s">
-        <v>220</v>
-      </c>
-      <c r="H2" t="s">
-        <v>221</v>
-      </c>
       <c r="I2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -2540,7 +3053,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C4">
         <v>800</v>
@@ -2571,7 +3084,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C5">
         <v>800</v>
@@ -2602,7 +3115,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C6">
         <v>800</v>
@@ -2633,7 +3146,7 @@
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -2664,7 +3177,7 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C8">
         <v>800</v>
@@ -2695,7 +3208,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C9">
         <v>800</v>
@@ -2726,7 +3239,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C10">
         <v>800</v>
@@ -2757,7 +3270,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C11">
         <v>800</v>
@@ -2788,7 +3301,7 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C12">
         <v>800</v>
@@ -2819,7 +3332,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C13">
         <v>800</v>
@@ -2850,7 +3363,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C14">
         <v>800</v>
@@ -2911,21 +3424,19 @@
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="21" t="s">
-        <v>217</v>
-      </c>
+      <c r="B22" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2936,7 +3447,7 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
@@ -2981,17 +3492,17 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2999,39 +3510,42 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3057,30 +3571,30 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F2" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" t="s">
         <v>115</v>
-      </c>
-      <c r="C3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3098,7 +3612,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F4" s="15">
         <v>37</v>
@@ -3116,17 +3630,17 @@
         <v>0.375</v>
       </c>
       <c r="D5" s="12">
-        <f t="shared" ref="D5:D35" si="0">C5-B5</f>
+        <f t="shared" ref="D5:D17" si="0">C5-B5</f>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F5" s="15">
         <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3145,7 +3659,7 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F6" s="15">
         <v>39</v>
@@ -3154,7 +3668,7 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3172,7 +3686,7 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F7" s="15">
         <v>40</v>
@@ -3196,7 +3710,7 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F8" s="15">
         <v>41</v>
@@ -3221,7 +3735,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F9" s="15">
         <v>42</v>
@@ -3232,7 +3746,7 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="B10" s="12">
-        <f t="shared" ref="B10:B35" si="1">C9</f>
+        <f t="shared" ref="B10:B17" si="1">C9</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="C10" s="12">
@@ -3243,7 +3757,7 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F10" s="15">
         <v>42</v>
@@ -3265,7 +3779,7 @@
         <v>3.4722222222222265E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F11" s="15">
         <v>44</v>
@@ -3290,7 +3804,7 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F12" s="15">
         <v>25</v>
@@ -3315,7 +3829,7 @@
         <v>4.861111111111116E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F13" s="15">
         <v>26</v>
@@ -3340,7 +3854,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F14" s="15">
         <v>26</v>
@@ -3365,7 +3879,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F15" s="15">
         <v>28</v>
@@ -3390,7 +3904,7 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E16" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F16" s="15">
         <v>30</v>
@@ -3415,7 +3929,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3543,12 +4057,12 @@
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -3558,17 +4072,17 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3611,7 +4125,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3721,18 +4235,18 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -4240,7 +4754,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -4300,12 +4814,12 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -4338,12 +4852,12 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F1" s="14"/>
     </row>

--- a/Professor/Material de Acompanhamento_v3.xlsx
+++ b/Professor/Material de Acompanhamento_v3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\fenrir\Professor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\Fenrir\Professor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="9" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="9" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Aula 1" sheetId="17" state="hidden" r:id="rId1"/>
@@ -27,10 +27,13 @@
     <sheet name="29" sheetId="12" state="hidden" r:id="rId13"/>
     <sheet name="40 " sheetId="8" state="hidden" r:id="rId14"/>
     <sheet name="44" sheetId="9" state="hidden" r:id="rId15"/>
-    <sheet name="46" sheetId="15" r:id="rId16"/>
-    <sheet name="47" sheetId="22" r:id="rId17"/>
-    <sheet name="49" sheetId="14" r:id="rId18"/>
-    <sheet name="51" sheetId="21" r:id="rId19"/>
+    <sheet name="45" sheetId="15" r:id="rId16"/>
+    <sheet name="46" sheetId="22" r:id="rId17"/>
+    <sheet name="49-50" sheetId="24" r:id="rId18"/>
+    <sheet name="51" sheetId="14" r:id="rId19"/>
+    <sheet name="53" sheetId="27" r:id="rId20"/>
+    <sheet name="54" sheetId="21" r:id="rId21"/>
+    <sheet name="55" sheetId="28" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="234">
   <si>
     <t>Lista de Compras</t>
   </si>
@@ -329,28 +332,7 @@
     <t>10 minuto</t>
   </si>
   <si>
-    <t>Explicar parte a parte cada canto do quadro:</t>
-  </si>
-  <si>
-    <t>- Tipo de caracter do argumento</t>
-  </si>
-  <si>
-    <t>- Resultado previo da formula</t>
-  </si>
-  <si>
-    <t>fazer com Eles Usar Arquivos de Fornecedores</t>
-  </si>
-  <si>
     <t>DATADIF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Explicar a busca em Intervalo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Fazer um exemplo de COMISSÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Fazer um exemplo de Busca Venda Mês a mês (usar referencia celula ao inves de numeroda coluna)</t>
   </si>
   <si>
     <t xml:space="preserve">Explicar PNL : de cada de 1970 no EUA por   Richard Bandler e John Grinder </t>
@@ -642,93 +624,15 @@
     <t>Meida-se/Cont.se</t>
   </si>
   <si>
-    <t>- Mostrar ELIMINAR DUPLICATAS</t>
-  </si>
-  <si>
-    <t>-Mostrar MEDIASE</t>
-  </si>
-  <si>
-    <t>-MOSTRAR CONT.SE</t>
-  </si>
-  <si>
-    <t>-Mostrar SOMASE</t>
-  </si>
-  <si>
     <t>REFORCAR O EXEMPLO COM O EXERCICIOS DO FLUXO DE CAIXA - PEDIR PARA ELE FAZEREM 1 ANO E CONSOLIDAR</t>
   </si>
   <si>
     <t>PEIDR PARA CONSOLIDAR ATALHOS</t>
   </si>
   <si>
-    <t>MOSTRAR CLASSIFICAÇÃO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 1 Nivel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2 - Níveis</t>
-  </si>
-  <si>
-    <t>Treinamento Comercial</t>
-  </si>
-  <si>
-    <t>Marketing &amp; Publicidade</t>
-  </si>
-  <si>
-    <t>Despesas Juridicas</t>
-  </si>
-  <si>
-    <t>Despesas de Viagem</t>
-  </si>
-  <si>
-    <t>Consultorias e Assessorias</t>
-  </si>
-  <si>
-    <t>Serviços terceirizados</t>
-  </si>
-  <si>
-    <t>Doações</t>
-  </si>
-  <si>
-    <t>Telefonia e intemet</t>
-  </si>
-  <si>
-    <t>Impostos e taxas</t>
-  </si>
-  <si>
-    <t>Salário</t>
-  </si>
-  <si>
-    <t>Campanhas intemas</t>
-  </si>
-  <si>
-    <t>Total do Orçamento</t>
-  </si>
-  <si>
-    <t>Vl Filial A</t>
-  </si>
-  <si>
-    <t>FILIA B</t>
-  </si>
-  <si>
-    <t>VL FILIAC</t>
-  </si>
-  <si>
-    <t>%FILIAL A</t>
-  </si>
-  <si>
-    <t>%FILIAL B</t>
-  </si>
-  <si>
-    <t>%FILIAL C</t>
-  </si>
-  <si>
     <t>Pedir para abrirem FLUXO DE CAIXA CORRIGIDO</t>
   </si>
   <si>
-    <t>MOSTRAR CANTO COM PREVIA DE FORMULAS</t>
-  </si>
-  <si>
     <t>Mostrar Soma e Media tridimensional - FORMATAÇÂO</t>
   </si>
   <si>
@@ -738,10 +642,136 @@
     <t>EXERCICIO Budget</t>
   </si>
   <si>
-    <t>COR DA GUIA</t>
-  </si>
-  <si>
-    <t>Usar base de VENDAS</t>
+    <t>MOSTRAR CANTO do EXCEL COM PREVIA DE FORMULAS ao SLECIONAR</t>
+  </si>
+  <si>
+    <t>MUDAR COR DA GUIA</t>
+  </si>
+  <si>
+    <t>COMENTAR QUE É SEGREDO E MANIPULAR FOMRULA ENTRE PLANILHA</t>
+  </si>
+  <si>
+    <t>Demonstração de Classificação</t>
+  </si>
+  <si>
+    <t>Classificação e FILTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - lateralmente</t>
+  </si>
+  <si>
+    <t>Atalho de Intervalo "Crtl + Shit + Espaço"</t>
+  </si>
+  <si>
+    <t>Usar Arquivo Exercicio Budget - Criar Linguição de Filiais:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Mostrar Colar Especial (Valores)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Simular erro (classificar com Formulas).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Mostrar MOVER com arrastando para criar Banco de Dados de Flilial x Conta e Classficar</t>
+  </si>
+  <si>
+    <t>Pedir para Abrir arquivo  Classificação.xlsx - Pedir para ELES fazerem as classificações e testar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Aproveitar arquivo para mostrar FILTROS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Pedir para PINTAR despesas inuteis e FILTRAR POR ELAS (Filtro por COR).</t>
+  </si>
+  <si>
+    <t>MOSTRAR SUBTOTAL</t>
+  </si>
+  <si>
+    <t>Deixar eles brincarem - Classificiação</t>
+  </si>
+  <si>
+    <t>ABRIR ARQUIVO DEMONSTRACAO PROCV</t>
+  </si>
+  <si>
+    <t>PROCV +  EXERCICIO CONJUNTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - PRATICA ABA SECUNDARIA DO PROCV</t>
+  </si>
+  <si>
+    <t>No aba BÁSICO SIMULAR 1 de Comissão</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - usar referencia celula ao inves de numeroda coluna)</t>
+  </si>
+  <si>
+    <t>Exercicio PROCV</t>
+  </si>
+  <si>
+    <t>Demonstrar Texto p/COLUNA</t>
+  </si>
+  <si>
+    <t>Fazer o mesmo com o Csv</t>
+  </si>
+  <si>
+    <t>Fazer tudo,</t>
+  </si>
+  <si>
+    <t>Depois pela segunda tentativa fazer o ponto virgula</t>
+  </si>
+  <si>
+    <t>3ª tentativa fazer Data como TEXTO</t>
+  </si>
+  <si>
+    <t>Abrir Arquivo pedidos em CSV</t>
+  </si>
+  <si>
+    <t>Pedir para fazerem com o Pedidos em TXT</t>
+  </si>
+  <si>
+    <t>Trabalhar com Csv</t>
+  </si>
+  <si>
+    <t>Finalizar com Estudo de Caso Forncedores</t>
+  </si>
+  <si>
+    <t>EXERCICIO FONECEDORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - ressaltar que procv tem TER NUMERO COM NUMERO (simular numero que é TEXTO).</t>
+  </si>
+  <si>
+    <t>EXERCICIO arquivo PROCV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ULTIMO PEDIR PARA CONSOLIDAR ATALHOS</t>
+  </si>
+  <si>
+    <t>Na reSolução APENAS</t>
+  </si>
+  <si>
+    <t>NA RESOLUÇÂO CALCULO FORA Da FORMULA PARA SIMULAR</t>
+  </si>
+  <si>
+    <t>Fazer exemplo simples com Frutas mesmo</t>
+  </si>
+  <si>
+    <t>fazer cont.se , soma se e media.se</t>
+  </si>
+  <si>
+    <t>MOSTAR EM CONJUNTO COM ELIMNIAR DUPLICATAS</t>
+  </si>
+  <si>
+    <t>Fomulas SE</t>
+  </si>
+  <si>
+    <t>Explicar operadores</t>
+  </si>
+  <si>
+    <t>Classficar LATERAL.</t>
+  </si>
+  <si>
+    <t>Mostrar FILTRO "CURINGA".</t>
   </si>
 </sst>
 </file>
@@ -753,7 +783,7 @@
     <numFmt numFmtId="165" formatCode="##,###,###,#\-##"/>
     <numFmt numFmtId="166" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,8 +814,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -834,6 +871,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -847,7 +890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -871,8 +914,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1169,30 +1216,30 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F2" s="15" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1210,7 +1257,7 @@
         <v>6.9444444444444753E-3</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1229,10 +1276,10 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1250,7 +1297,7 @@
         <v>1.3888888888888951E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F6" s="15">
         <v>10</v>
@@ -1259,7 +1306,7 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1277,7 +1324,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F7" s="15">
         <v>17</v>
@@ -1301,7 +1348,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F8" s="15">
         <v>22</v>
@@ -1325,7 +1372,7 @@
         <v>6.9444444444444753E-3</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F9" s="15">
         <v>23</v>
@@ -1349,7 +1396,7 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F10" s="15">
         <v>24</v>
@@ -1373,7 +1420,7 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F11" s="15">
         <v>25</v>
@@ -1397,7 +1444,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F12" s="15">
         <v>25</v>
@@ -1421,7 +1468,7 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F13" s="15">
         <v>26</v>
@@ -1446,7 +1493,7 @@
         <v>6.9444444444444753E-3</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F14" s="15">
         <v>26</v>
@@ -1470,7 +1517,7 @@
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F15" s="15">
         <v>28</v>
@@ -1494,7 +1541,7 @@
         <v>3.4722222222222099E-3</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F16" s="15">
         <v>30</v>
@@ -1518,7 +1565,7 @@
         <v>5.208333333333337E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1536,7 +1583,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F18" s="15">
         <v>31</v>
@@ -1560,7 +1607,7 @@
         <v>1.041666666666663E-2</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F19" s="15">
         <v>32</v>
@@ -1584,7 +1631,7 @@
         <v>3.4722222222223209E-3</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1602,7 +1649,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F21" s="15">
         <v>33</v>
@@ -1626,7 +1673,7 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F22" s="15">
         <v>34</v>
@@ -1650,7 +1697,7 @@
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F23" s="15">
         <v>34</v>
@@ -1674,7 +1721,7 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F24" s="15">
         <v>35</v>
@@ -1698,7 +1745,7 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E25" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F25" s="15">
         <v>36</v>
@@ -1722,7 +1769,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F26" s="15">
         <v>36</v>
@@ -1746,7 +1793,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F27" s="15">
         <v>37</v>
@@ -1770,7 +1817,7 @@
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F28" s="15">
         <v>37</v>
@@ -1794,7 +1841,7 @@
         <v>1.041666666666663E-2</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F29" s="15">
         <v>37</v>
@@ -1818,7 +1865,7 @@
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="E30" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F30" s="15">
         <v>38</v>
@@ -1842,7 +1889,7 @@
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F31" s="15">
         <v>38</v>
@@ -1866,7 +1913,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F32" s="15">
         <v>40</v>
@@ -1890,7 +1937,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E33" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F33" s="15">
         <v>41</v>
@@ -1914,7 +1961,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="E34" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F34" s="15">
         <v>42</v>
@@ -1938,7 +1985,7 @@
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="E35" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F35" s="15">
         <v>42</v>
@@ -1954,46 +2001,46 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H35"/>
+  <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="15" customWidth="1"/>
     <col min="7" max="7" width="50.85546875" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F2" s="15" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2004,17 +2051,17 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="12">
-        <v>0.3611111111111111</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D4" s="12">
         <f>C4-B4</f>
-        <v>6.9444444444444198E-3</v>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F4" s="15">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2023,23 +2070,23 @@
       </c>
       <c r="B5" s="12">
         <f>C4</f>
-        <v>0.3611111111111111</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="C5" s="12">
-        <v>0.36805555555555558</v>
+        <v>0.375</v>
       </c>
       <c r="D5" s="12">
-        <f t="shared" ref="D5:D17" si="0">C5-B5</f>
-        <v>6.9444444444444753E-3</v>
+        <f t="shared" ref="D5:D16" si="0">C5-B5</f>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="E5" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="F5" s="15">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2048,50 +2095,48 @@
       </c>
       <c r="B6" s="12">
         <f>C5</f>
-        <v>0.36805555555555558</v>
+        <v>0.375</v>
       </c>
       <c r="C6" s="12">
         <v>0.39583333333333331</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
-        <v>2.7777777777777735E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="F6" s="15">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G6" s="15">
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>6.9444444444444198E-3</v>
-      </c>
+      <c r="A7" s="12"/>
       <c r="B7" s="12">
         <v>0.39583333333333331</v>
       </c>
       <c r="C7" s="12">
-        <v>0.41666666666666669</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>187</v>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>193</v>
       </c>
       <c r="F7" s="15">
         <v>49</v>
       </c>
       <c r="G7" s="15">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2099,336 +2144,299 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="B8" s="12">
-        <v>0.41666666666666669</v>
+        <f t="shared" ref="B8:B9" si="1">C7</f>
+        <v>0.4236111111111111</v>
       </c>
       <c r="C8" s="12">
-        <v>0.4375</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
-        <v>2.0833333333333315E-2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>169</v>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="F8" s="15">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G8" s="15">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>6.9444444444444753E-3</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="B9" s="12">
-        <f>C8</f>
-        <v>0.4375</v>
+        <f t="shared" si="1"/>
+        <v>0.4513888888888889</v>
       </c>
       <c r="C9" s="12">
-        <v>0.44444444444444442</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>6.9444444444444198E-3</v>
       </c>
-      <c r="E9" t="s">
-        <v>173</v>
+      <c r="E9" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="F9" s="15">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>1.388888888888884E-2</v>
+        <v>6.9444444444444753E-3</v>
       </c>
       <c r="B10" s="12">
-        <f t="shared" ref="B10:B17" si="1">C9</f>
-        <v>0.44444444444444442</v>
+        <f>C9</f>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C10" s="12">
-        <v>0.46527777777777773</v>
+        <v>0.5</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>2.0833333333333315E-2</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="F10" s="15">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
-        <v>1.3888888888888895E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="B11" s="12">
-        <f t="shared" si="1"/>
-        <v>0.46527777777777773</v>
+        <f t="shared" ref="B11:B16" si="2">C10</f>
+        <v>0.5</v>
       </c>
       <c r="C11" s="12">
-        <v>0.5</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
-        <v>3.4722222222222265E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>183</v>
-      </c>
-      <c r="F11" s="15">
-        <v>44</v>
-      </c>
-      <c r="G11" s="15">
-        <v>45</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>6.9444444444444198E-3</v>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="B12" s="12">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f t="shared" si="2"/>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C12" s="12">
-        <v>0.54166666666666663</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
+        <v>5.555555555555558E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="F12" s="15">
-        <v>25</v>
-      </c>
-      <c r="G12" s="15">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
-        <v>1.0416666666666685E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="B13" s="12">
-        <f t="shared" si="1"/>
-        <v>0.54166666666666663</v>
+        <f t="shared" si="2"/>
+        <v>0.59722222222222221</v>
       </c>
       <c r="C13" s="12">
-        <v>0.59027777777777779</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="0"/>
-        <v>4.861111111111116E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="F13" s="15">
-        <v>26</v>
-      </c>
-      <c r="G13" s="15">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>6.9444444444444753E-3</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="B14" s="12">
-        <f t="shared" si="1"/>
-        <v>0.59027777777777779</v>
+        <f t="shared" si="2"/>
+        <v>0.61111111111111105</v>
       </c>
       <c r="C14" s="12">
-        <v>0.61111111111111105</v>
+        <v>0.625</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
-        <v>2.0833333333333259E-2</v>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="F14" s="15">
-        <v>26</v>
-      </c>
-      <c r="G14" s="15">
-        <v>26</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <v>2.4305555555555525E-2</v>
+        <v>6.9444444444444753E-3</v>
       </c>
       <c r="B15" s="12">
-        <f t="shared" si="1"/>
-        <v>0.61111111111111105</v>
+        <f t="shared" si="2"/>
+        <v>0.625</v>
       </c>
       <c r="C15" s="12">
-        <v>0.65277777777777779</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="0"/>
-        <v>4.1666666666666741E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="F15" s="15">
-        <v>28</v>
-      </c>
-      <c r="G15" s="15">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>3.4722222222222099E-3</v>
+        <v>2.4305555555555525E-2</v>
       </c>
       <c r="B16" s="12">
-        <f t="shared" si="1"/>
-        <v>0.65277777777777779</v>
+        <f t="shared" si="2"/>
+        <v>0.64583333333333337</v>
       </c>
       <c r="C16" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="0"/>
-        <v>1.388888888888884E-2</v>
+        <v>5.5555555555555469E-2</v>
       </c>
       <c r="E16" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="F16" s="15">
-        <v>30</v>
-      </c>
-      <c r="G16" s="15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>5.208333333333337E-2</v>
-      </c>
-      <c r="B17" s="12">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C17" s="12">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D17" s="12">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666741E-2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+    <row r="29" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+    <row r="30" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+    <row r="31" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+    <row r="32" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+    <row r="33" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+    <row r="34" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -2439,8 +2447,15 @@
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
     </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2462,7 +2477,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H2" t="s">
         <v>91</v>
@@ -2470,37 +2485,37 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -2539,7 +2554,7 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F3" s="12">
         <v>0.59722222222222221</v>
@@ -2547,12 +2562,12 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F6" s="12">
         <v>0.625</v>
@@ -2745,7 +2760,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2821,12 +2836,12 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I4" s="12">
         <v>0.65972222222222221</v>
@@ -2834,7 +2849,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2860,7 +2875,7 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="I2">
         <v>15</v>
@@ -2873,7 +2888,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E4">
         <v>15</v>
@@ -2881,7 +2896,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -2889,22 +2904,22 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -2912,12 +2927,12 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -2925,17 +2940,17 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="21" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2945,10 +2960,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:B15"/>
+  <dimension ref="B3:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2956,29 +2971,29 @@
     <col min="2" max="2" width="92.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>196</v>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>223</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="21" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2988,443 +3003,32 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" t="s">
-        <v>214</v>
-      </c>
-      <c r="G2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>900</v>
-      </c>
-      <c r="E3">
-        <v>450</v>
-      </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24">
-        <f>C3/SUM($C3:$E3)</f>
-        <v>6.8965517241379309E-2</v>
-      </c>
-      <c r="H3" s="24">
-        <f t="shared" ref="H3:H15" si="0">D3/SUM($C3:$E3)</f>
-        <v>0.62068965517241381</v>
-      </c>
-      <c r="I3" s="24">
-        <f t="shared" ref="I3:I15" si="1">E3/SUM($C3:$E3)</f>
-        <v>0.31034482758620691</v>
-      </c>
-      <c r="J3" s="24">
-        <f>SUM(G3:I3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4">
-        <v>800</v>
-      </c>
-      <c r="D4">
-        <v>900</v>
-      </c>
-      <c r="E4">
-        <v>450</v>
-      </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24">
-        <f t="shared" ref="G4:G15" si="2">C4/SUM($C4:$E4)</f>
-        <v>0.37209302325581395</v>
-      </c>
-      <c r="H4" s="24">
-        <f t="shared" si="0"/>
-        <v>0.41860465116279072</v>
-      </c>
-      <c r="I4" s="24">
-        <f t="shared" si="1"/>
-        <v>0.20930232558139536</v>
-      </c>
-      <c r="J4" s="24">
-        <f t="shared" ref="J4:J15" si="3">SUM(G4:I4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5">
-        <v>800</v>
-      </c>
-      <c r="D5">
-        <v>900</v>
-      </c>
-      <c r="E5">
-        <v>450</v>
-      </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24">
-        <f t="shared" si="2"/>
-        <v>0.37209302325581395</v>
-      </c>
-      <c r="H5" s="24">
-        <f t="shared" si="0"/>
-        <v>0.41860465116279072</v>
-      </c>
-      <c r="I5" s="24">
-        <f t="shared" si="1"/>
-        <v>0.20930232558139536</v>
-      </c>
-      <c r="J5" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6">
-        <v>800</v>
-      </c>
-      <c r="D6">
-        <v>900</v>
-      </c>
-      <c r="E6">
-        <v>450</v>
-      </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24">
-        <f t="shared" si="2"/>
-        <v>0.37209302325581395</v>
-      </c>
-      <c r="H6" s="24">
-        <f t="shared" si="0"/>
-        <v>0.41860465116279072</v>
-      </c>
-      <c r="I6" s="24">
-        <f t="shared" si="1"/>
-        <v>0.20930232558139536</v>
-      </c>
-      <c r="J6" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7">
-        <v>800</v>
-      </c>
-      <c r="D7">
-        <v>900</v>
-      </c>
-      <c r="E7">
-        <v>450</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24">
-        <f t="shared" si="2"/>
-        <v>0.37209302325581395</v>
-      </c>
-      <c r="H7" s="24">
-        <f t="shared" si="0"/>
-        <v>0.41860465116279072</v>
-      </c>
-      <c r="I7" s="24">
-        <f t="shared" si="1"/>
-        <v>0.20930232558139536</v>
-      </c>
-      <c r="J7" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8">
-        <v>800</v>
-      </c>
-      <c r="D8">
-        <v>900</v>
-      </c>
-      <c r="E8">
-        <v>450</v>
-      </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24">
-        <f t="shared" si="2"/>
-        <v>0.37209302325581395</v>
-      </c>
-      <c r="H8" s="24">
-        <f t="shared" si="0"/>
-        <v>0.41860465116279072</v>
-      </c>
-      <c r="I8" s="24">
-        <f t="shared" si="1"/>
-        <v>0.20930232558139536</v>
-      </c>
-      <c r="J8" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C9">
-        <v>800</v>
-      </c>
-      <c r="D9">
-        <v>900</v>
-      </c>
-      <c r="E9">
-        <v>450</v>
-      </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24">
-        <f t="shared" si="2"/>
-        <v>0.37209302325581395</v>
-      </c>
-      <c r="H9" s="24">
-        <f t="shared" si="0"/>
-        <v>0.41860465116279072</v>
-      </c>
-      <c r="I9" s="24">
-        <f t="shared" si="1"/>
-        <v>0.20930232558139536</v>
-      </c>
-      <c r="J9" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10">
-        <v>800</v>
-      </c>
-      <c r="D10">
-        <v>900</v>
-      </c>
-      <c r="E10">
-        <v>450</v>
-      </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24">
-        <f t="shared" si="2"/>
-        <v>0.37209302325581395</v>
-      </c>
-      <c r="H10" s="24">
-        <f t="shared" si="0"/>
-        <v>0.41860465116279072</v>
-      </c>
-      <c r="I10" s="24">
-        <f t="shared" si="1"/>
-        <v>0.20930232558139536</v>
-      </c>
-      <c r="J10" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11">
-        <v>800</v>
-      </c>
-      <c r="D11">
-        <v>900</v>
-      </c>
-      <c r="E11">
-        <v>450</v>
-      </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24">
-        <f t="shared" si="2"/>
-        <v>0.37209302325581395</v>
-      </c>
-      <c r="H11" s="24">
-        <f t="shared" si="0"/>
-        <v>0.41860465116279072</v>
-      </c>
-      <c r="I11" s="24">
-        <f t="shared" si="1"/>
-        <v>0.20930232558139536</v>
-      </c>
-      <c r="J11" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12">
-        <v>800</v>
-      </c>
-      <c r="D12">
-        <v>900</v>
-      </c>
-      <c r="E12">
-        <v>450</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24">
-        <f t="shared" si="2"/>
-        <v>0.37209302325581395</v>
-      </c>
-      <c r="H12" s="24">
-        <f t="shared" si="0"/>
-        <v>0.41860465116279072</v>
-      </c>
-      <c r="I12" s="24">
-        <f t="shared" si="1"/>
-        <v>0.20930232558139536</v>
-      </c>
-      <c r="J12" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13">
-        <v>800</v>
-      </c>
-      <c r="D13">
-        <v>900</v>
-      </c>
-      <c r="E13">
-        <v>450</v>
-      </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24">
-        <f t="shared" si="2"/>
-        <v>0.37209302325581395</v>
-      </c>
-      <c r="H13" s="24">
-        <f t="shared" si="0"/>
-        <v>0.41860465116279072</v>
-      </c>
-      <c r="I13" s="24">
-        <f t="shared" si="1"/>
-        <v>0.20930232558139536</v>
-      </c>
-      <c r="J13" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14">
-        <v>800</v>
-      </c>
-      <c r="D14">
-        <v>900</v>
-      </c>
-      <c r="E14">
-        <v>450</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24">
-        <f t="shared" si="2"/>
-        <v>0.37209302325581395</v>
-      </c>
-      <c r="H14" s="24">
-        <f t="shared" si="0"/>
-        <v>0.41860465116279072</v>
-      </c>
-      <c r="I14" s="24">
-        <f t="shared" si="1"/>
-        <v>0.20930232558139536</v>
-      </c>
-      <c r="J14" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <f>SUM(C3:C14)</f>
-        <v>8900</v>
-      </c>
-      <c r="D15">
-        <f>SUM(D3:D14)</f>
-        <v>10800</v>
-      </c>
-      <c r="E15">
-        <f>SUM(E3:E14)</f>
-        <v>5400</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24">
-        <f t="shared" si="2"/>
-        <v>0.35458167330677293</v>
-      </c>
-      <c r="H15" s="24">
-        <f t="shared" si="0"/>
-        <v>0.4302788844621514</v>
-      </c>
-      <c r="I15" s="24">
-        <f t="shared" si="1"/>
-        <v>0.2151394422310757</v>
-      </c>
-      <c r="J15" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>226</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3433,10 +3037,111 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E15"/>
+  <dimension ref="A2:E29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="87.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3447,12 +3152,12 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
-        <v>98</v>
+      <c r="B2" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3">
@@ -3460,92 +3165,27 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>95</v>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>96</v>
+      <c r="B5" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>194</v>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="25" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3571,30 +3211,30 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F2" s="15" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3612,7 +3252,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F4" s="15">
         <v>37</v>
@@ -3634,13 +3274,13 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F5" s="15">
         <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3659,7 +3299,7 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F6" s="15">
         <v>39</v>
@@ -3668,7 +3308,7 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3686,7 +3326,7 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F7" s="15">
         <v>40</v>
@@ -3710,7 +3350,7 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F8" s="15">
         <v>41</v>
@@ -3735,7 +3375,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F9" s="15">
         <v>42</v>
@@ -3757,7 +3397,7 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F10" s="15">
         <v>42</v>
@@ -3779,7 +3419,7 @@
         <v>3.4722222222222265E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F11" s="15">
         <v>44</v>
@@ -3804,7 +3444,7 @@
         <v>4.166666666666663E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F12" s="15">
         <v>25</v>
@@ -3829,7 +3469,7 @@
         <v>4.861111111111116E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F13" s="15">
         <v>26</v>
@@ -3854,7 +3494,7 @@
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F14" s="15">
         <v>26</v>
@@ -3879,7 +3519,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F15" s="15">
         <v>28</v>
@@ -3904,7 +3544,7 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E16" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F16" s="15">
         <v>30</v>
@@ -3929,7 +3569,7 @@
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -4039,6 +3679,128 @@
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="47.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4057,12 +3819,12 @@
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -4072,17 +3834,17 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4125,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4235,18 +3997,18 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4754,7 +4516,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -4814,12 +4576,12 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -4852,12 +4614,12 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
       <c r="E1" s="14" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F1" s="14"/>
     </row>

--- a/Professor/Material de Acompanhamento_v3.xlsx
+++ b/Professor/Material de Acompanhamento_v3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\Fenrir\Professor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\fenrir\Professor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="9" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="9" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Aula 1" sheetId="17" state="hidden" r:id="rId1"/>
@@ -27,13 +27,19 @@
     <sheet name="29" sheetId="12" state="hidden" r:id="rId13"/>
     <sheet name="40 " sheetId="8" state="hidden" r:id="rId14"/>
     <sheet name="44" sheetId="9" state="hidden" r:id="rId15"/>
-    <sheet name="45" sheetId="15" r:id="rId16"/>
-    <sheet name="46" sheetId="22" r:id="rId17"/>
-    <sheet name="49-50" sheetId="24" r:id="rId18"/>
-    <sheet name="51" sheetId="14" r:id="rId19"/>
-    <sheet name="53" sheetId="27" r:id="rId20"/>
-    <sheet name="54" sheetId="21" r:id="rId21"/>
-    <sheet name="55" sheetId="28" r:id="rId22"/>
+    <sheet name="45" sheetId="15" state="hidden" r:id="rId16"/>
+    <sheet name="46" sheetId="22" state="hidden" r:id="rId17"/>
+    <sheet name="49-50" sheetId="24" state="hidden" r:id="rId18"/>
+    <sheet name="51" sheetId="14" state="hidden" r:id="rId19"/>
+    <sheet name="53" sheetId="27" state="hidden" r:id="rId20"/>
+    <sheet name="57" sheetId="29" r:id="rId21"/>
+    <sheet name="58" sheetId="30" r:id="rId22"/>
+    <sheet name="59" sheetId="33" r:id="rId23"/>
+    <sheet name="60" sheetId="32" r:id="rId24"/>
+    <sheet name="61" sheetId="34" r:id="rId25"/>
+    <sheet name="62" sheetId="36" r:id="rId26"/>
+    <sheet name="64" sheetId="37" r:id="rId27"/>
+    <sheet name="66" sheetId="38" r:id="rId28"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -45,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="277">
   <si>
     <t>Lista de Compras</t>
   </si>
@@ -636,12 +642,6 @@
     <t>Mostrar Soma e Media tridimensional - FORMATAÇÂO</t>
   </si>
   <si>
-    <t>Explicar FORMULA 3D e Formtatação</t>
-  </si>
-  <si>
-    <t>EXERCICIO Budget</t>
-  </si>
-  <si>
     <t>MOSTRAR CANTO do EXCEL COM PREVIA DE FORMULAS ao SLECIONAR</t>
   </si>
   <si>
@@ -651,9 +651,6 @@
     <t>COMENTAR QUE É SEGREDO E MANIPULAR FOMRULA ENTRE PLANILHA</t>
   </si>
   <si>
-    <t>Demonstração de Classificação</t>
-  </si>
-  <si>
     <t>Classificação e FILTRO</t>
   </si>
   <si>
@@ -687,33 +684,15 @@
     <t>MOSTRAR SUBTOTAL</t>
   </si>
   <si>
-    <t>Deixar eles brincarem - Classificiação</t>
-  </si>
-  <si>
     <t>ABRIR ARQUIVO DEMONSTRACAO PROCV</t>
   </si>
   <si>
-    <t>PROCV +  EXERCICIO CONJUNTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - PRATICA ABA SECUNDARIA DO PROCV</t>
-  </si>
-  <si>
     <t>No aba BÁSICO SIMULAR 1 de Comissão</t>
   </si>
   <si>
     <t xml:space="preserve"> - usar referencia celula ao inves de numeroda coluna)</t>
   </si>
   <si>
-    <t>Exercicio PROCV</t>
-  </si>
-  <si>
-    <t>Demonstrar Texto p/COLUNA</t>
-  </si>
-  <si>
-    <t>Fazer o mesmo com o Csv</t>
-  </si>
-  <si>
     <t>Fazer tudo,</t>
   </si>
   <si>
@@ -729,15 +708,6 @@
     <t>Pedir para fazerem com o Pedidos em TXT</t>
   </si>
   <si>
-    <t>Trabalhar com Csv</t>
-  </si>
-  <si>
-    <t>Finalizar com Estudo de Caso Forncedores</t>
-  </si>
-  <si>
-    <t>EXERCICIO FONECEDORES</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - ressaltar que procv tem TER NUMERO COM NUMERO (simular numero que é TEXTO).</t>
   </si>
   <si>
@@ -753,25 +723,190 @@
     <t>NA RESOLUÇÂO CALCULO FORA Da FORMULA PARA SIMULAR</t>
   </si>
   <si>
-    <t>Fazer exemplo simples com Frutas mesmo</t>
-  </si>
-  <si>
-    <t>fazer cont.se , soma se e media.se</t>
-  </si>
-  <si>
-    <t>MOSTAR EM CONJUNTO COM ELIMNIAR DUPLICATAS</t>
-  </si>
-  <si>
-    <t>Fomulas SE</t>
-  </si>
-  <si>
-    <t>Explicar operadores</t>
-  </si>
-  <si>
     <t>Classficar LATERAL.</t>
   </si>
   <si>
     <t>Mostrar FILTRO "CURINGA".</t>
+  </si>
+  <si>
+    <t>Abrir arquivo tabela de Vendedores</t>
+  </si>
+  <si>
+    <t>Usar arquivo para PROCV e FILTRO (algun vendedores variaveis e outros FIXO</t>
+  </si>
+  <si>
+    <t>Qual total de COMISSÃO</t>
+  </si>
+  <si>
+    <t>Relembrar procv e Filtro</t>
+  </si>
+  <si>
+    <t>Relembrar Txt e Subtotal</t>
+  </si>
+  <si>
+    <t>Abrir arquivo Vendas</t>
+  </si>
+  <si>
+    <t>relembrar como abrir Txt</t>
+  </si>
+  <si>
+    <t>Usar subtotal para responder as perguntas.</t>
+  </si>
+  <si>
+    <t>Exercicio Forncedores</t>
+  </si>
+  <si>
+    <t>USAR SELECIONAR CTRL + :, copiar totais</t>
+  </si>
+  <si>
+    <t>ensinar concatenar e extratir direita, esquerda.</t>
+  </si>
+  <si>
+    <t>ENSINAR CONCATENAR</t>
+  </si>
+  <si>
+    <t>Ultima pergunta: consigo responder por FILTRO?</t>
+  </si>
+  <si>
+    <t>Explicar REMOVER DUPLICATAS</t>
+  </si>
+  <si>
+    <t>usar arquivos VENDAS, Aba  "REGIAO"</t>
+  </si>
+  <si>
+    <t>fazer eliminação UF, depois Cidade e UF.</t>
+  </si>
+  <si>
+    <t>EXPLICAR QUE FUNCIONA com Caracter CURINGA * e ?</t>
+  </si>
+  <si>
+    <t>Pedir para Pesquisar no arquivo</t>
+  </si>
+  <si>
+    <t>COMENTAR subtotal por formatação (formato mês)</t>
+  </si>
+  <si>
+    <t>UTILIZAR ARQUIVO VENDAS</t>
+  </si>
+  <si>
+    <t>Analisar arquivo antes de sair fazendo. ANALISAR ID aba por aba</t>
+  </si>
+  <si>
+    <t>Continuar arquivo de Vendas</t>
+  </si>
+  <si>
+    <t>Usar conceito simples de Lista de Frutas mesmo, ou nome.</t>
+  </si>
+  <si>
+    <t>Explicar somase/cont.se</t>
+  </si>
+  <si>
+    <t>*Caracter CURING*</t>
+  </si>
+  <si>
+    <t>*Usar maior e menor"</t>
+  </si>
+  <si>
+    <t>*RESSALTAR QUE PODE SER feito tupo por filtro.</t>
+  </si>
+  <si>
+    <t>Explicar SOMA.SES e Curinga</t>
+  </si>
+  <si>
+    <t>Correção do Exercicio SOMASE</t>
+  </si>
+  <si>
+    <t>Explicação Remover Duplicatas</t>
+  </si>
+  <si>
+    <t>Exercicio</t>
+  </si>
+  <si>
+    <t>Correção Exercicios Duplicatas</t>
+  </si>
+  <si>
+    <t>Correção Exercicios Forncedores</t>
+  </si>
+  <si>
+    <t>Arquivo VENDAS</t>
+  </si>
+  <si>
+    <t>Resolver a aproveitar para reforçar caracter CURINGA.</t>
+  </si>
+  <si>
+    <t>EXPLICAR CONCEITO DE PREÇO PONDERADO????</t>
+  </si>
+  <si>
+    <t>Explicação de Graficos</t>
+  </si>
+  <si>
+    <t>Explicar Graficos</t>
+  </si>
+  <si>
+    <t>Evolução</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Mostrar Evolução Anual e Depois Abrir arquivo DRE</t>
+  </si>
+  <si>
+    <t>Comparação:</t>
+  </si>
+  <si>
+    <t>Mostrar exemplo com  Vendas</t>
+  </si>
+  <si>
+    <t>Maria 500</t>
+  </si>
+  <si>
+    <t>Jose 900</t>
+  </si>
+  <si>
+    <t>por FIM, usar Participação</t>
+  </si>
+  <si>
+    <t>Exercicios Graficos de Vendas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - USar arquivo com Somatoria do Tabela de VENDEDORES Fazer  Comparação Vendedor</t>
+  </si>
+  <si>
+    <t>Fazer pizza de Vendedor</t>
+  </si>
+  <si>
+    <t>Explicar TENDENCIA NO GRAFICO e COMO PROJETAR</t>
+  </si>
+  <si>
+    <t>Explicar FORMATAÇÂO</t>
+  </si>
+  <si>
+    <t>COR</t>
+  </si>
+  <si>
+    <t>FONTE</t>
+  </si>
+  <si>
+    <t>TITULO</t>
+  </si>
+  <si>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>LIMPAR ELEMENTOS E RETORNAR COM "+"</t>
+  </si>
+  <si>
+    <t>EXPLICAR DE ONDE ELE PEGA (Quadrado colorido)</t>
+  </si>
+  <si>
+    <t>ELEMENTO GRAFICO</t>
+  </si>
+  <si>
+    <t>Arquivo DRE</t>
+  </si>
+  <si>
+    <t>Mostar os diversos tipo de tendencia e equações.</t>
+  </si>
+  <si>
+    <t>Anterar ordem de coluna empilhada</t>
   </si>
 </sst>
 </file>
@@ -2004,13 +2139,13 @@
   <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="15" customWidth="1"/>
     <col min="7" max="7" width="50.85546875" style="15" bestFit="1" customWidth="1"/>
   </cols>
@@ -2051,17 +2186,17 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C4" s="12">
-        <v>0.36805555555555558</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="D4" s="12">
         <f>C4-B4</f>
-        <v>1.3888888888888895E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="E4" t="s">
         <v>151</v>
       </c>
       <c r="F4" s="15">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2070,23 +2205,20 @@
       </c>
       <c r="B5" s="12">
         <f>C4</f>
-        <v>0.36805555555555558</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="C5" s="12">
-        <v>0.375</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" ref="D5:D16" si="0">C5-B5</f>
-        <v>6.9444444444444198E-3</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="F5" s="15">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2095,48 +2227,40 @@
       </c>
       <c r="B6" s="12">
         <f>C5</f>
-        <v>0.375</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="C6" s="12">
-        <v>0.39583333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
-        <v>2.0833333333333315E-2</v>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="F6" s="15">
-        <v>46</v>
-      </c>
-      <c r="G6" s="15">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12">
-        <v>0.39583333333333331</v>
+        <f>C6</f>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C7" s="12">
-        <v>0.4236111111111111</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="F7" s="15">
-        <v>49</v>
-      </c>
-      <c r="G7" s="15">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2145,23 +2269,20 @@
       </c>
       <c r="B8" s="12">
         <f t="shared" ref="B8:B9" si="1">C7</f>
-        <v>0.4236111111111111</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="C8" s="12">
         <v>0.4513888888888889</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>205</v>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>245</v>
       </c>
       <c r="F8" s="15">
-        <v>49</v>
-      </c>
-      <c r="G8" s="15">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2173,17 +2294,17 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="C9" s="12">
-        <v>0.45833333333333331</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>207</v>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>246</v>
       </c>
       <c r="F9" s="15">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2192,20 +2313,20 @@
       </c>
       <c r="B10" s="12">
         <f>C9</f>
-        <v>0.45833333333333331</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="C10" s="12">
-        <v>0.5</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>2.7777777777777735E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="F10" s="15">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2213,15 +2334,14 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="B11" s="12">
-        <f t="shared" ref="B11:B16" si="2">C10</f>
-        <v>0.5</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="C11" s="12">
         <v>0.54166666666666663</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
+        <v>5.2083333333333315E-2</v>
       </c>
       <c r="E11" t="s">
         <v>126</v>
@@ -2232,21 +2352,21 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="B12" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B11:B16" si="2">C11</f>
         <v>0.54166666666666663</v>
       </c>
       <c r="C12" s="12">
-        <v>0.59722222222222221</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>5.555555555555558E-2</v>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="F12" s="15">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2255,20 +2375,20 @@
       </c>
       <c r="B13" s="12">
         <f t="shared" si="2"/>
-        <v>0.59722222222222221</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="C13" s="12">
-        <v>0.61111111111111105</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="0"/>
-        <v>1.388888888888884E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="F13" s="15">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2277,20 +2397,20 @@
       </c>
       <c r="B14" s="12">
         <f t="shared" si="2"/>
-        <v>0.61111111111111105</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C14" s="12">
-        <v>0.625</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="F14" s="15">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2299,20 +2419,20 @@
       </c>
       <c r="B15" s="12">
         <f t="shared" si="2"/>
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C15" s="12">
         <v>0.625</v>
-      </c>
-      <c r="C15" s="12">
-        <v>0.64583333333333337</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="F15" s="15">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2320,110 +2440,146 @@
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="B16" s="12">
-        <f t="shared" si="2"/>
+        <f>C15</f>
+        <v>0.625</v>
+      </c>
+      <c r="C16" s="12">
         <v>0.64583333333333337</v>
-      </c>
-      <c r="C16" s="12">
-        <v>0.70138888888888884</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="0"/>
-        <v>5.5555555555555469E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="E16" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="F16" s="15">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="B17" s="12">
+        <f>C16</f>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" ref="D17" si="3">C17-B17</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="B18" s="12">
+        <f>C17</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" ref="D18" si="4">C18-B18</f>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>265</v>
+      </c>
+      <c r="F18" s="15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -2960,6 +3116,9 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="B3:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2983,17 +3142,17 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3003,10 +3162,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="B2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3017,17 +3179,17 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3037,10 +3199,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3050,17 +3215,17 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="26" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3068,15 +3233,15 @@
         <v>2</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3089,7 +3254,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3097,27 +3262,27 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="21" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
@@ -3128,7 +3293,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3138,10 +3303,13 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3157,7 +3325,7 @@
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3">
@@ -3167,12 +3335,12 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -3180,12 +3348,12 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="25" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -3687,10 +3855,13 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="B2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3700,27 +3871,27 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -3730,33 +3901,42 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B10"/>
+  <dimension ref="B3:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3765,42 +3945,387 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="5" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>231</v>
       </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>228</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="B9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>275</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Professor/Material de Acompanhamento_v3.xlsx
+++ b/Professor/Material de Acompanhamento_v3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\fenrir\Professor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\Fenrir\Professor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="9" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="9" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Aula 1" sheetId="17" state="hidden" r:id="rId1"/>
@@ -32,16 +32,17 @@
     <sheet name="49-50" sheetId="24" state="hidden" r:id="rId18"/>
     <sheet name="51" sheetId="14" state="hidden" r:id="rId19"/>
     <sheet name="53" sheetId="27" state="hidden" r:id="rId20"/>
-    <sheet name="57" sheetId="29" r:id="rId21"/>
-    <sheet name="58" sheetId="30" r:id="rId22"/>
-    <sheet name="59" sheetId="33" r:id="rId23"/>
-    <sheet name="60" sheetId="32" r:id="rId24"/>
-    <sheet name="61" sheetId="34" r:id="rId25"/>
-    <sheet name="62" sheetId="36" r:id="rId26"/>
-    <sheet name="64" sheetId="37" r:id="rId27"/>
-    <sheet name="66" sheetId="38" r:id="rId28"/>
+    <sheet name="56" sheetId="39" r:id="rId21"/>
+    <sheet name="57" sheetId="29" r:id="rId22"/>
+    <sheet name="58" sheetId="30" r:id="rId23"/>
+    <sheet name="59" sheetId="33" r:id="rId24"/>
+    <sheet name="60" sheetId="32" r:id="rId25"/>
+    <sheet name="61" sheetId="34" r:id="rId26"/>
+    <sheet name="62" sheetId="36" r:id="rId27"/>
+    <sheet name="64" sheetId="37" r:id="rId28"/>
+    <sheet name="66" sheetId="38" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="282">
   <si>
     <t>Lista de Compras</t>
   </si>
@@ -907,6 +908,21 @@
   </si>
   <si>
     <t>Anterar ordem de coluna empilhada</t>
+  </si>
+  <si>
+    <t>Fazer perguntas sobre caracter Coringa :</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Quando devo utilizar "Pesquisa EXATA E INTERVALO"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Exemplo &gt;&gt; Como faço para pesquisar tudo que começa com BR ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Como pesquiso algo que tenha onde não sei se escreve com Z ou S... Ex:CAIÇARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - O que tenho que ter em mente para ABRIR um TXT (2 coisas)?</t>
   </si>
 </sst>
 </file>
@@ -2139,7 +2155,7 @@
   <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2352,7 +2368,7 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="B12" s="12">
-        <f t="shared" ref="B11:B16" si="2">C11</f>
+        <f t="shared" ref="B12:B15" si="2">C11</f>
         <v>0.54166666666666663</v>
       </c>
       <c r="C12" s="12">
@@ -3901,10 +3917,50 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E11"/>
+  <dimension ref="B3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3935,20 +3991,17 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4037,7 +4090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E9"/>
   <sheetViews>
@@ -4086,7 +4139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E11"/>
   <sheetViews>
@@ -4127,7 +4180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E6"/>
   <sheetViews>
@@ -4160,7 +4213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
@@ -4190,12 +4243,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4302,7 +4355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B6"/>
   <sheetViews>

--- a/Professor/Material de Acompanhamento_v3.xlsx
+++ b/Professor/Material de Acompanhamento_v3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\Fenrir\Professor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\fenrir\Professor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="9" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="9" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Aula 1" sheetId="17" state="hidden" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <sheet name="62" sheetId="36" r:id="rId27"/>
     <sheet name="64" sheetId="37" r:id="rId28"/>
     <sheet name="66" sheetId="38" r:id="rId29"/>
+    <sheet name="67" sheetId="40" r:id="rId30"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="285">
   <si>
     <t>Lista de Compras</t>
   </si>
@@ -808,9 +809,6 @@
     <t>*Usar maior e menor"</t>
   </si>
   <si>
-    <t>*RESSALTAR QUE PODE SER feito tupo por filtro.</t>
-  </si>
-  <si>
     <t>Explicar SOMA.SES e Curinga</t>
   </si>
   <si>
@@ -835,9 +833,6 @@
     <t>Resolver a aproveitar para reforçar caracter CURINGA.</t>
   </si>
   <si>
-    <t>EXPLICAR CONCEITO DE PREÇO PONDERADO????</t>
-  </si>
-  <si>
     <t>Explicação de Graficos</t>
   </si>
   <si>
@@ -919,10 +914,25 @@
     <t xml:space="preserve"> - Exemplo &gt;&gt; Como faço para pesquisar tudo que começa com BR ?</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Como pesquiso algo que tenha onde não sei se escreve com Z ou S... Ex:CAIÇARA</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - O que tenho que ter em mente para ABRIR um TXT (2 coisas)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Como pesquiso algo que tenha onde não sei se escreve com Z ou S... Ex:PAJEM</t>
+  </si>
+  <si>
+    <t>Quem acabou, faz exercicio de subtotoal por VENDEDOR (venda e comissão</t>
+  </si>
+  <si>
+    <t>*RESSALTAR QUE PODE SER feito tudo por filtro. (Quase Tudo, não mostrar o diferente por filtro,pois não ensinei)</t>
+  </si>
+  <si>
+    <t>NÂO MENCIONAR PREÇO PONDERADO</t>
+  </si>
+  <si>
+    <t>Para quem acabar, pedir para formatar.</t>
+  </si>
+  <si>
+    <t>Pedir para mudar core formatar, mudar fonte</t>
   </si>
 </sst>
 </file>
@@ -973,7 +983,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1028,6 +1038,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1041,7 +1057,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1071,6 +1087,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2155,7 +2172,7 @@
   <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2273,7 +2290,7 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F7" s="15">
         <v>59</v>
@@ -2295,7 +2312,7 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F8" s="15">
         <v>60</v>
@@ -2317,7 +2334,7 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F9" s="15">
         <v>61</v>
@@ -2339,7 +2356,7 @@
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F10" s="15">
         <v>62</v>
@@ -2379,7 +2396,7 @@
         <v>1.3888888888888951E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F12" s="15">
         <v>62</v>
@@ -2423,7 +2440,7 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F14" s="15">
         <v>63</v>
@@ -2445,7 +2462,7 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F15" s="15">
         <v>64</v>
@@ -2467,7 +2484,7 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F16" s="15">
         <v>65</v>
@@ -2511,7 +2528,7 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F18" s="15">
         <v>65</v>
@@ -3927,27 +3944,27 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3957,15 +3974,15 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E10"/>
+  <dimension ref="B3:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="2" max="2" width="70.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
@@ -3989,6 +4006,11 @@
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -4000,8 +4022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4144,7 +4166,7 @@
   <dimension ref="B3:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4172,7 +4194,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -4185,7 +4207,7 @@
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4215,28 +4237,31 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B7"/>
+  <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>252</v>
-      </c>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4248,14 +4273,14 @@
   <dimension ref="B2:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4263,12 +4288,12 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -4277,77 +4302,77 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4360,24 +4385,24 @@
   <dimension ref="B2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4423,6 +4448,34 @@
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/Professor/Material de Acompanhamento_v3.xlsx
+++ b/Professor/Material de Acompanhamento_v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="9" activeTab="29"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="20" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Aula 1" sheetId="17" state="hidden" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="31" sheetId="13" state="hidden" r:id="rId7"/>
     <sheet name="37 " sheetId="7" state="hidden" r:id="rId8"/>
     <sheet name="33" sheetId="6" state="hidden" r:id="rId9"/>
-    <sheet name="Aula 3" sheetId="23" r:id="rId10"/>
+    <sheet name="Aula 4" sheetId="23" state="hidden" r:id="rId10"/>
     <sheet name="37" sheetId="20" state="hidden" r:id="rId11"/>
     <sheet name="40" sheetId="5" state="hidden" r:id="rId12"/>
     <sheet name="29" sheetId="12" state="hidden" r:id="rId13"/>
@@ -32,18 +32,20 @@
     <sheet name="49-50" sheetId="24" state="hidden" r:id="rId18"/>
     <sheet name="51" sheetId="14" state="hidden" r:id="rId19"/>
     <sheet name="53" sheetId="27" state="hidden" r:id="rId20"/>
-    <sheet name="56" sheetId="39" r:id="rId21"/>
-    <sheet name="57" sheetId="29" r:id="rId22"/>
-    <sheet name="58" sheetId="30" r:id="rId23"/>
-    <sheet name="59" sheetId="33" r:id="rId24"/>
-    <sheet name="60" sheetId="32" r:id="rId25"/>
-    <sheet name="61" sheetId="34" r:id="rId26"/>
-    <sheet name="62" sheetId="36" r:id="rId27"/>
-    <sheet name="64" sheetId="37" r:id="rId28"/>
-    <sheet name="66" sheetId="38" r:id="rId29"/>
-    <sheet name="67" sheetId="40" r:id="rId30"/>
+    <sheet name="Aula 5" sheetId="41" r:id="rId21"/>
+    <sheet name="56" sheetId="39" state="hidden" r:id="rId22"/>
+    <sheet name="57" sheetId="29" state="hidden" r:id="rId23"/>
+    <sheet name="60" sheetId="32" state="hidden" r:id="rId24"/>
+    <sheet name="59" sheetId="33" state="hidden" r:id="rId25"/>
+    <sheet name="65" sheetId="42" r:id="rId26"/>
+    <sheet name="66" sheetId="38" r:id="rId27"/>
+    <sheet name="67" sheetId="40" r:id="rId28"/>
+    <sheet name="58" sheetId="30" r:id="rId29"/>
+    <sheet name="61" sheetId="34" r:id="rId30"/>
+    <sheet name="62" sheetId="36" r:id="rId31"/>
+    <sheet name="64" sheetId="37" r:id="rId32"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="310">
   <si>
     <t>Lista de Compras</t>
   </si>
@@ -929,10 +931,85 @@
     <t>NÂO MENCIONAR PREÇO PONDERADO</t>
   </si>
   <si>
-    <t>Para quem acabar, pedir para formatar.</t>
-  </si>
-  <si>
-    <t>Pedir para mudar core formatar, mudar fonte</t>
+    <t>Função SE</t>
+  </si>
+  <si>
+    <t>Função Aninhada</t>
+  </si>
+  <si>
+    <t>Filtro Avançado</t>
+  </si>
+  <si>
+    <t>Fornecedor Direite, Esquerda, Etx Texto</t>
+  </si>
+  <si>
+    <t>Fornecedores</t>
+  </si>
+  <si>
+    <t>Remover Duplicatas</t>
+  </si>
+  <si>
+    <t>Relembrar como Fazer Grafico - DRE</t>
+  </si>
+  <si>
+    <t>grafico: Tendencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abrir Arquivo DRE e </t>
+  </si>
+  <si>
+    <t>REFAZER O GRAFICO RAPIDAMENTE</t>
+  </si>
+  <si>
+    <t>Mosatar a formatação rapidamente.</t>
+  </si>
+  <si>
+    <t>Brincar com grafico e Projeções IBGE</t>
+  </si>
+  <si>
+    <t>ELIMINAR DUPLICATAS</t>
+  </si>
+  <si>
+    <t>Arquivo VENDAS RESOLVIDO.xlxs</t>
+  </si>
+  <si>
+    <t>Mostrar ELIMINAR DUPLICATAS .</t>
+  </si>
+  <si>
+    <t>MOSTRAR TRABALHGAR EM CONJUNTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - COM SOMASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - MEDIA SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - GRAFICO</t>
+  </si>
+  <si>
+    <t>Correção do Exercicio Forncedores</t>
+  </si>
+  <si>
+    <t>Brincar com Grafico BGE e FAZER Grafico Homem x Mulher</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Exercicios SE</t>
+  </si>
+  <si>
+    <t>Correção Exercicios</t>
+  </si>
+  <si>
+    <t>Explicação Classficiação LISTA PERSONALIZADA</t>
+  </si>
+  <si>
+    <t>Exercicios Lista Personalizada - Esquerda/Direita</t>
+  </si>
+  <si>
+    <t>Explicação Formatação SIMPLES</t>
   </si>
 </sst>
 </file>
@@ -2172,7 +2249,7 @@
   <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3934,10 +4011,513 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="50.85546875" style="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="D4" s="12">
+        <f>C4-B4</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="B5" s="12">
+        <f>C4</f>
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" ref="D5:D18" si="0">C5-B5</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="B6" s="12">
+        <f>C5</f>
+        <v>0.375</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" s="15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12">
+        <f>C6</f>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222265E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B8" s="12">
+        <f t="shared" ref="B8:B10" si="1">C7</f>
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B9" s="12">
+        <f t="shared" si="1"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F9" s="15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="B10" s="12">
+        <f t="shared" si="1"/>
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" si="0"/>
+        <v>5.5555555555555525E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="B11" s="12">
+        <f>C10</f>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.5625</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="0"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="B12" s="12">
+        <f t="shared" ref="B12:B15" si="2">C11</f>
+        <v>0.5625</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="0"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>305</v>
+      </c>
+      <c r="F12" s="15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B13" s="12">
+        <f t="shared" si="2"/>
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F13" s="15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="B14" s="12">
+        <f t="shared" si="2"/>
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>307</v>
+      </c>
+      <c r="F14" s="15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="B15" s="12">
+        <f t="shared" si="2"/>
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="0"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>308</v>
+      </c>
+      <c r="F15" s="15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="B16" s="12">
+        <f>C15</f>
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="B17" s="12">
+        <f>C16</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>309</v>
+      </c>
+      <c r="F17" s="15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="B18" s="12">
+        <f>C17</f>
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="0"/>
+        <v>3.4722222222220989E-3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>263</v>
+      </c>
+      <c r="F18" s="15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="B3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3972,12 +4552,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="B3:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4018,7 +4601,218 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="B3:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F23"/>
   <sheetViews>
@@ -4105,304 +4899,6 @@
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>235</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>281</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>274</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4457,25 +4953,175 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B5"/>
+  <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>284</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/Professor/Material de Acompanhamento_v3.xlsx
+++ b/Professor/Material de Acompanhamento_v3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\fenrir\Professor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\Fenrir\Professor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="20" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="20" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="Aula 1" sheetId="17" state="hidden" r:id="rId1"/>
@@ -39,13 +39,15 @@
     <sheet name="59" sheetId="33" state="hidden" r:id="rId25"/>
     <sheet name="65" sheetId="42" r:id="rId26"/>
     <sheet name="66" sheetId="38" r:id="rId27"/>
-    <sheet name="67" sheetId="40" r:id="rId28"/>
-    <sheet name="58" sheetId="30" r:id="rId29"/>
-    <sheet name="61" sheetId="34" r:id="rId30"/>
-    <sheet name="62" sheetId="36" r:id="rId31"/>
-    <sheet name="64" sheetId="37" r:id="rId32"/>
+    <sheet name="67" sheetId="45" r:id="rId28"/>
+    <sheet name="1111" sheetId="40" r:id="rId29"/>
+    <sheet name="Planilha1" sheetId="43" r:id="rId30"/>
+    <sheet name="58" sheetId="30" r:id="rId31"/>
+    <sheet name="61" sheetId="34" r:id="rId32"/>
+    <sheet name="62" sheetId="36" r:id="rId33"/>
+    <sheet name="64" sheetId="37" r:id="rId34"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="312">
   <si>
     <t>Lista de Compras</t>
   </si>
@@ -1010,6 +1012,12 @@
   </si>
   <si>
     <t>Explicação Formatação SIMPLES</t>
+  </si>
+  <si>
+    <t>Inserir Grafico de Duas Linhas</t>
+  </si>
+  <si>
+    <t>65-66</t>
   </si>
 </sst>
 </file>
@@ -4013,8 +4021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4071,7 +4079,7 @@
         <v>151</v>
       </c>
       <c r="F4" s="15">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4092,8 +4100,8 @@
       <c r="E5" t="s">
         <v>289</v>
       </c>
-      <c r="F5" s="15">
-        <v>57</v>
+      <c r="F5" s="15" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4699,29 +4707,39 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D6"/>
+  <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>291</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -4731,25 +4749,30 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B6"/>
+  <dimension ref="B1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>273</v>
       </c>
@@ -4761,10 +4784,45 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B13"/>
+  <dimension ref="B1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4772,133 +4830,42 @@
     <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>301</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="5" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -4953,6 +4920,114 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="5" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4984,7 +5059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E7"/>
   <sheetViews>
@@ -5017,11 +5092,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>

--- a/Professor/Material de Acompanhamento_v3.xlsx
+++ b/Professor/Material de Acompanhamento_v3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\Fenrir\Professor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\fenrir\Professor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="20" activeTab="33"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="20" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="Aula 1" sheetId="17" state="hidden" r:id="rId1"/>
@@ -37,17 +37,22 @@
     <sheet name="57" sheetId="29" state="hidden" r:id="rId23"/>
     <sheet name="60" sheetId="32" state="hidden" r:id="rId24"/>
     <sheet name="59" sheetId="33" state="hidden" r:id="rId25"/>
-    <sheet name="65" sheetId="42" r:id="rId26"/>
-    <sheet name="66" sheetId="38" r:id="rId27"/>
-    <sheet name="67" sheetId="45" r:id="rId28"/>
-    <sheet name="1111" sheetId="40" r:id="rId29"/>
-    <sheet name="Planilha1" sheetId="43" r:id="rId30"/>
-    <sheet name="58" sheetId="30" r:id="rId31"/>
-    <sheet name="61" sheetId="34" r:id="rId32"/>
-    <sheet name="62" sheetId="36" r:id="rId33"/>
-    <sheet name="64" sheetId="37" r:id="rId34"/>
+    <sheet name="58" sheetId="30" state="hidden" r:id="rId26"/>
+    <sheet name="62" sheetId="36" state="hidden" r:id="rId27"/>
+    <sheet name="64" sheetId="37" state="hidden" r:id="rId28"/>
+    <sheet name="65" sheetId="42" r:id="rId29"/>
+    <sheet name="66" sheetId="38" r:id="rId30"/>
+    <sheet name="67" sheetId="46" r:id="rId31"/>
+    <sheet name="68" sheetId="40" r:id="rId32"/>
+    <sheet name="69" sheetId="51" r:id="rId33"/>
+    <sheet name="71" sheetId="34" r:id="rId34"/>
+    <sheet name="72" sheetId="47" r:id="rId35"/>
+    <sheet name="73" sheetId="48" r:id="rId36"/>
+    <sheet name="74" sheetId="50" r:id="rId37"/>
+    <sheet name="75" sheetId="52" r:id="rId38"/>
+    <sheet name="76" sheetId="53" r:id="rId39"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="333">
   <si>
     <t>Lista de Compras</t>
   </si>
@@ -774,12 +779,6 @@
     <t>Ultima pergunta: consigo responder por FILTRO?</t>
   </si>
   <si>
-    <t>Explicar REMOVER DUPLICATAS</t>
-  </si>
-  <si>
-    <t>usar arquivos VENDAS, Aba  "REGIAO"</t>
-  </si>
-  <si>
     <t>fazer eliminação UF, depois Cidade e UF.</t>
   </si>
   <si>
@@ -945,18 +944,12 @@
     <t>Fornecedor Direite, Esquerda, Etx Texto</t>
   </si>
   <si>
-    <t>Fornecedores</t>
-  </si>
-  <si>
     <t>Remover Duplicatas</t>
   </si>
   <si>
     <t>Relembrar como Fazer Grafico - DRE</t>
   </si>
   <si>
-    <t>grafico: Tendencia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Abrir Arquivo DRE e </t>
   </si>
   <si>
@@ -966,18 +959,12 @@
     <t>Mosatar a formatação rapidamente.</t>
   </si>
   <si>
-    <t>Brincar com grafico e Projeções IBGE</t>
-  </si>
-  <si>
     <t>ELIMINAR DUPLICATAS</t>
   </si>
   <si>
     <t>Arquivo VENDAS RESOLVIDO.xlxs</t>
   </si>
   <si>
-    <t>Mostrar ELIMINAR DUPLICATAS .</t>
-  </si>
-  <si>
     <t>MOSTRAR TRABALHGAR EM CONJUNTO</t>
   </si>
   <si>
@@ -990,12 +977,6 @@
     <t xml:space="preserve"> - GRAFICO</t>
   </si>
   <si>
-    <t>Correção do Exercicio Forncedores</t>
-  </si>
-  <si>
-    <t>Brincar com Grafico BGE e FAZER Grafico Homem x Mulher</t>
-  </si>
-  <si>
     <t>SE</t>
   </si>
   <si>
@@ -1011,13 +992,100 @@
     <t>Exercicios Lista Personalizada - Esquerda/Direita</t>
   </si>
   <si>
-    <t>Explicação Formatação SIMPLES</t>
-  </si>
-  <si>
     <t>Inserir Grafico de Duas Linhas</t>
   </si>
   <si>
     <t>65-66</t>
+  </si>
+  <si>
+    <t>fazer o De SKU em Conjunto com o CONT.SE Grafico de Barra.</t>
+  </si>
+  <si>
+    <t>Fazer por SEGMENTO de Eletronico de PIZZA com %.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  Pedir para FAZEREM: Por fabricante PIZZA</t>
+  </si>
+  <si>
+    <t>Inserir de PIZZA.</t>
+  </si>
+  <si>
+    <t>: Inicar exercicios</t>
+  </si>
+  <si>
+    <t>Mostrar nome composto de 3 sobrenomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Fazer um com eles</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Fazer outro sem Eles.</t>
+  </si>
+  <si>
+    <t>DIREITA, ESQUERDA E EXT.TEXTO</t>
+  </si>
+  <si>
+    <t>10 minutos</t>
+  </si>
+  <si>
+    <t>Elementos de grafico</t>
+  </si>
+  <si>
+    <t>esquerda direita</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - USAR ABA REGIÃO</t>
+  </si>
+  <si>
+    <t>Exercicio 3</t>
+  </si>
+  <si>
+    <t>Exercicio 4</t>
+  </si>
+  <si>
+    <t>2) Depois Mostrar Eliminar Duplicatas Com um campo, Com dois campo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1) - Reforçar EXT .TEXTO., Direita etc..</t>
+  </si>
+  <si>
+    <t>NA ABA VENDAS</t>
+  </si>
+  <si>
+    <t>Arquivo FORNECEDORES.txt e Ccusto.xlxs</t>
+  </si>
+  <si>
+    <t>Lista Personalizada:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t>Usar exemplo do arquivo de Fornecedor e que a ordem de comissão é de acordo com o informado</t>
+  </si>
+  <si>
+    <t>Quem ficará sem receber.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Pedir para fazerem o mesmo com o de VENDAS e pedir para organizar de cordo com a ordem de CONTAGEM  de REGISTROS por VENDEDOR (maior para menor). 110 mil reais de limite para pagar.</t>
+  </si>
+  <si>
+    <t>Arquivo Priorização de Pagamentos</t>
+  </si>
+  <si>
+    <t>Demonstração Duplicatas</t>
+  </si>
+  <si>
+    <t>Arquivo Exercicios se.</t>
+  </si>
+  <si>
+    <t>tabela de Vendedores e pedir para caluclarem a nova comissão</t>
+  </si>
+  <si>
+    <t>Explicar função SE</t>
+  </si>
+  <si>
+    <t>Arqvuido "Função SE - Demonstração".</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1129,6 +1197,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1142,7 +1216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1173,6 +1247,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2375,7 +2450,7 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F7" s="15">
         <v>59</v>
@@ -2397,7 +2472,7 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F8" s="15">
         <v>60</v>
@@ -2419,7 +2494,7 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F9" s="15">
         <v>61</v>
@@ -2441,7 +2516,7 @@
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F10" s="15">
         <v>62</v>
@@ -2481,7 +2556,7 @@
         <v>1.3888888888888951E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F12" s="15">
         <v>62</v>
@@ -2525,7 +2600,7 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F14" s="15">
         <v>63</v>
@@ -2547,7 +2622,7 @@
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F15" s="15">
         <v>64</v>
@@ -2569,7 +2644,7 @@
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F16" s="15">
         <v>65</v>
@@ -2613,7 +2688,7 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F18" s="15">
         <v>65</v>
@@ -4019,15 +4094,15 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H36"/>
+  <dimension ref="A2:H38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="5" width="51.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="15" customWidth="1"/>
     <col min="7" max="7" width="50.85546875" style="15" bestFit="1" customWidth="1"/>
@@ -4094,14 +4169,14 @@
         <v>0.375</v>
       </c>
       <c r="D5" s="12">
-        <f t="shared" ref="D5:D18" si="0">C5-B5</f>
+        <f t="shared" ref="D5:D20" si="0">C5-B5</f>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="E5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4120,10 +4195,10 @@
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="F6" s="15">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4133,17 +4208,17 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C7" s="12">
-        <v>0.43055555555555558</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
-        <v>3.4722222222222265E-2</v>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="F7" s="15">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4151,21 +4226,21 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="B8" s="12">
-        <f t="shared" ref="B8:B10" si="1">C7</f>
-        <v>0.43055555555555558</v>
+        <f t="shared" ref="B8:B9" si="1">C7</f>
+        <v>0.40972222222222227</v>
       </c>
       <c r="C8" s="12">
-        <v>0.44444444444444442</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
       <c r="F8" s="15">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4174,161 +4249,161 @@
       </c>
       <c r="B9" s="12">
         <f t="shared" si="1"/>
-        <v>0.44444444444444442</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="C9" s="12">
-        <v>0.4861111111111111</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
-        <v>4.1666666666666685E-2</v>
+        <v>4.861111111111116E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="F9" s="15">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>6.9444444444444753E-3</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="B10" s="12">
-        <f t="shared" si="1"/>
-        <v>0.4861111111111111</v>
+        <f t="shared" ref="B10" si="2">C9</f>
+        <v>0.47222222222222227</v>
       </c>
       <c r="C10" s="12">
-        <v>0.54166666666666663</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="D10" s="12">
-        <f t="shared" si="0"/>
-        <v>5.5555555555555525E-2</v>
+        <f>C10-B10</f>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F10" s="15">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
-        <v>1.388888888888884E-2</v>
+        <v>6.9444444444444753E-3</v>
       </c>
       <c r="B11" s="12">
         <f>C10</f>
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C11" s="12">
         <v>0.54166666666666663</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0.5625</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
-        <v>2.083333333333337E-2</v>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>304</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>1.3888888888888895E-2</v>
+        <v>6.9444444444444753E-3</v>
       </c>
       <c r="B12" s="12">
-        <f t="shared" ref="B12:B15" si="2">C11</f>
-        <v>0.5625</v>
+        <f>C11</f>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C12" s="12">
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D12" s="12">
-        <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
+        <f t="shared" ref="D12" si="3">C12-B12</f>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="F12" s="15">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
-        <v>6.9444444444444198E-3</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="B13" s="12">
-        <f t="shared" si="2"/>
+        <f>C12</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C13" s="12">
         <v>0.60416666666666663</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0.61805555555555558</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
+        <v>2.0833333333333259E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F13" s="15">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>1.0416666666666685E-2</v>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="B14" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B14:B20" si="4">C13</f>
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C14" s="12">
         <v>0.61805555555555558</v>
-      </c>
-      <c r="C14" s="12">
-        <v>0.625</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F14" s="15">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <v>6.9444444444444753E-3</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="B15" s="12">
-        <f t="shared" si="2"/>
-        <v>0.625</v>
+        <f t="shared" si="4"/>
+        <v>0.61805555555555558</v>
       </c>
       <c r="C15" s="12">
-        <v>0.65277777777777779</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="0"/>
-        <v>2.777777777777779E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F15" s="15">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>2.4305555555555525E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="B16" s="12">
-        <f>C15</f>
+        <f t="shared" si="4"/>
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C16" s="12">
         <v>0.65277777777777779</v>
-      </c>
-      <c r="C16" s="12">
-        <v>0.66666666666666663</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="0"/>
@@ -4338,29 +4413,29 @@
         <v>122</v>
       </c>
       <c r="F16" s="15">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
-        <v>2.4305555555555525E-2</v>
+        <v>6.9444444444444753E-3</v>
       </c>
       <c r="B17" s="12">
-        <f>C16</f>
+        <f t="shared" si="4"/>
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="C17" s="12">
         <v>0.66666666666666663</v>
-      </c>
-      <c r="C17" s="12">
-        <v>0.67708333333333337</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
-        <v>1.0416666666666741E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="F17" s="15">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4368,73 +4443,96 @@
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="B18" s="12">
-        <f>C17</f>
-        <v>0.67708333333333337</v>
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C18" s="12">
-        <v>0.68055555555555547</v>
+        <v>0.6875</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="0"/>
-        <v>3.4722222222220989E-3</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="F18" s="15">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="A19" s="12">
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="B19" s="12">
+        <f t="shared" si="4"/>
+        <v>0.6875</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="15">
+        <v>75</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="A20" s="12">
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="B20" s="12">
+        <f t="shared" si="4"/>
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" si="0"/>
+        <v>-2.083333333333337E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
+      <c r="E21" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
+      <c r="E22" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
-      <c r="E23" t="s">
-        <v>290</v>
-      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
-      <c r="E24" t="s">
-        <v>286</v>
-      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
-      <c r="E25" t="s">
-        <v>288</v>
-      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
@@ -4442,7 +4540,7 @@
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4451,7 +4549,7 @@
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -4460,20 +4558,26 @@
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="E29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
+      <c r="E30" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
@@ -4499,17 +4603,29 @@
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+    <row r="35" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+    <row r="36" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4532,27 +4648,27 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4601,7 +4717,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4630,22 +4746,22 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4674,7 +4790,7 @@
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -4682,22 +4798,22 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -4707,10 +4823,261 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H9"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="5" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B2:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B2:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="78.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4722,150 +5089,29 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -4920,105 +5166,74 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:H6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F23"/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="5" spans="2:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>235</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -5028,7 +5243,123 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B3:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="28" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -5038,166 +5369,147 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>230</v>
+        <v>321</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>232</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>325</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F28"/>
+  <dimension ref="B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="B3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>252</v>
+        <v>330</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>274</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Professor/Material de Acompanhamento_v3.xlsx
+++ b/Professor/Material de Acompanhamento_v3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\fenrir\Professor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\Fenrir\Professor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="20" activeTab="36"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="20" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Aula 1" sheetId="17" state="hidden" r:id="rId1"/>
@@ -46,10 +46,10 @@
     <sheet name="68" sheetId="40" r:id="rId32"/>
     <sheet name="69" sheetId="51" r:id="rId33"/>
     <sheet name="71" sheetId="34" r:id="rId34"/>
-    <sheet name="72" sheetId="47" r:id="rId35"/>
-    <sheet name="73" sheetId="48" r:id="rId36"/>
-    <sheet name="74" sheetId="50" r:id="rId37"/>
-    <sheet name="75" sheetId="52" r:id="rId38"/>
+    <sheet name="73" sheetId="48" r:id="rId35"/>
+    <sheet name="74" sheetId="50" r:id="rId36"/>
+    <sheet name="75" sheetId="52" r:id="rId37"/>
+    <sheet name="72" sheetId="47" r:id="rId38"/>
     <sheet name="76" sheetId="53" r:id="rId39"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="342">
   <si>
     <t>Lista de Compras</t>
   </si>
@@ -1086,6 +1086,33 @@
   </si>
   <si>
     <t>Arqvuido "Função SE - Demonstração".</t>
+  </si>
+  <si>
+    <t>Intervalo Nomeado</t>
+  </si>
+  <si>
+    <t>Formular intervalo nomeado</t>
+  </si>
+  <si>
+    <t>Formatação Condicional</t>
+  </si>
+  <si>
+    <t>tabela</t>
+  </si>
+  <si>
+    <t>Table Dinamica</t>
+  </si>
+  <si>
+    <t>Formula Texto.</t>
+  </si>
+  <si>
+    <t>Reforçar SE função aninhada</t>
+  </si>
+  <si>
+    <t>auditor de formula</t>
+  </si>
+  <si>
+    <t>Filtro avançado</t>
   </si>
 </sst>
 </file>
@@ -4094,10 +4121,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H38"/>
+  <dimension ref="A2:H40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4590,42 +4617,73 @@
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
-    </row>
-    <row r="33" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-    </row>
-    <row r="35" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
+      <c r="E38" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>341</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5074,6 +5132,9 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5166,6 +5227,9 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="B1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5201,6 +5265,9 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5243,6 +5310,9 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="B3:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5336,6 +5406,9 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="B3:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5359,6 +5432,9 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="B2:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5381,6 +5457,83 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="B3:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H32:H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B9"/>
   <sheetViews>
@@ -5423,83 +5576,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="B3:D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Professor/Material de Acompanhamento_v3.xlsx
+++ b/Professor/Material de Acompanhamento_v3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\Fenrir\Professor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\fenrir\Professor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="20" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="36" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="Aula 1" sheetId="17" state="hidden" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="49-50" sheetId="24" state="hidden" r:id="rId18"/>
     <sheet name="51" sheetId="14" state="hidden" r:id="rId19"/>
     <sheet name="53" sheetId="27" state="hidden" r:id="rId20"/>
-    <sheet name="Aula 5" sheetId="41" r:id="rId21"/>
+    <sheet name="Aula 5" sheetId="41" state="hidden" r:id="rId21"/>
     <sheet name="56" sheetId="39" state="hidden" r:id="rId22"/>
     <sheet name="57" sheetId="29" state="hidden" r:id="rId23"/>
     <sheet name="60" sheetId="32" state="hidden" r:id="rId24"/>
@@ -40,19 +40,21 @@
     <sheet name="58" sheetId="30" state="hidden" r:id="rId26"/>
     <sheet name="62" sheetId="36" state="hidden" r:id="rId27"/>
     <sheet name="64" sheetId="37" state="hidden" r:id="rId28"/>
-    <sheet name="65" sheetId="42" r:id="rId29"/>
-    <sheet name="66" sheetId="38" r:id="rId30"/>
-    <sheet name="67" sheetId="46" r:id="rId31"/>
-    <sheet name="68" sheetId="40" r:id="rId32"/>
-    <sheet name="69" sheetId="51" r:id="rId33"/>
-    <sheet name="71" sheetId="34" r:id="rId34"/>
-    <sheet name="73" sheetId="48" r:id="rId35"/>
-    <sheet name="74" sheetId="50" r:id="rId36"/>
-    <sheet name="75" sheetId="52" r:id="rId37"/>
-    <sheet name="72" sheetId="47" r:id="rId38"/>
-    <sheet name="76" sheetId="53" r:id="rId39"/>
+    <sheet name="65" sheetId="42" state="hidden" r:id="rId29"/>
+    <sheet name="66" sheetId="38" state="hidden" r:id="rId30"/>
+    <sheet name="67" sheetId="46" state="hidden" r:id="rId31"/>
+    <sheet name="68" sheetId="40" state="hidden" r:id="rId32"/>
+    <sheet name="69" sheetId="51" state="hidden" r:id="rId33"/>
+    <sheet name="71" sheetId="34" state="hidden" r:id="rId34"/>
+    <sheet name="73" sheetId="48" state="hidden" r:id="rId35"/>
+    <sheet name="74" sheetId="50" state="hidden" r:id="rId36"/>
+    <sheet name="Aula 6" sheetId="54" r:id="rId37"/>
+    <sheet name="75" sheetId="52" r:id="rId38"/>
+    <sheet name="72" sheetId="47" r:id="rId39"/>
+    <sheet name="76" sheetId="53" r:id="rId40"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="345">
   <si>
     <t>Lista de Compras</t>
   </si>
@@ -1113,6 +1115,15 @@
   </si>
   <si>
     <t>Filtro avançado</t>
+  </si>
+  <si>
+    <t>Relembrar explicação do SE</t>
+  </si>
+  <si>
+    <t>Exercicio se</t>
+  </si>
+  <si>
+    <t>Correção do SE</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1230,6 +1241,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1243,7 +1260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1275,6 +1292,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1819,7 +1837,7 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="D13" s="12">
-        <f t="shared" ref="D13" si="1">C13-B13</f>
+        <f>C13-B13</f>
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="E13" t="s">
@@ -1982,7 +2000,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D20" s="12">
-        <f t="shared" ref="D20:D21" si="2">C20-B20</f>
+        <f t="shared" ref="D20:D35" si="1">C20-B20</f>
         <v>3.4722222222223209E-3</v>
       </c>
       <c r="E20" t="s">
@@ -2000,7 +2018,7 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="D21" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E21" t="s">
@@ -2024,7 +2042,7 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="D22" s="12">
-        <f t="shared" ref="D22" si="3">C22-B22</f>
+        <f t="shared" si="1"/>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E22" t="s">
@@ -2048,7 +2066,7 @@
         <v>0.61805555555555558</v>
       </c>
       <c r="D23" s="12">
-        <f t="shared" ref="D23:D24" si="4">C23-B23</f>
+        <f t="shared" si="1"/>
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="E23" t="s">
@@ -2072,7 +2090,7 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="D24" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E24" t="s">
@@ -2096,7 +2114,7 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="D25" s="12">
-        <f t="shared" ref="D25" si="5">C25-B25</f>
+        <f t="shared" si="1"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E25" t="s">
@@ -2120,7 +2138,7 @@
         <v>0.65972222222222221</v>
       </c>
       <c r="D26" s="12">
-        <f t="shared" ref="D26:D28" si="6">C26-B26</f>
+        <f t="shared" si="1"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E26" t="s">
@@ -2144,7 +2162,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D27" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E27" t="s">
@@ -2168,7 +2186,7 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="D28" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="E28" t="s">
@@ -2192,7 +2210,7 @@
         <v>0.68402777777777779</v>
       </c>
       <c r="D29" s="12">
-        <f t="shared" ref="D29" si="7">C29-B29</f>
+        <f t="shared" si="1"/>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="E29" t="s">
@@ -2216,7 +2234,7 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="D30" s="12">
-        <f t="shared" ref="D30" si="8">C30-B30</f>
+        <f t="shared" si="1"/>
         <v>1.7361111111111049E-2</v>
       </c>
       <c r="E30" t="s">
@@ -2240,7 +2258,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="D31" s="12">
-        <f t="shared" ref="D31" si="9">C31-B31</f>
+        <f t="shared" si="1"/>
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="E31" t="s">
@@ -2264,7 +2282,7 @@
         <v>0.71527777777777779</v>
       </c>
       <c r="D32" s="12">
-        <f t="shared" ref="D32:D33" si="10">C32-B32</f>
+        <f t="shared" si="1"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E32" t="s">
@@ -2288,7 +2306,7 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D33" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="1"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E33" t="s">
@@ -2312,7 +2330,7 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="D34" s="12">
-        <f t="shared" ref="D34:D35" si="11">C34-B34</f>
+        <f t="shared" si="1"/>
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="E34" t="s">
@@ -2336,7 +2354,7 @@
         <v>0.75</v>
       </c>
       <c r="D35" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="1"/>
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="E35" t="s">
@@ -2424,14 +2442,14 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="B5" s="12">
-        <f>C4</f>
+        <f t="shared" ref="B5:B10" si="0">C4</f>
         <v>0.3611111111111111</v>
       </c>
       <c r="C5" s="12">
         <v>0.38194444444444442</v>
       </c>
       <c r="D5" s="12">
-        <f t="shared" ref="D5:D16" si="0">C5-B5</f>
+        <f t="shared" ref="D5:D16" si="1">C5-B5</f>
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="E5" t="s">
@@ -2446,14 +2464,14 @@
         <v>1.3888888888888951E-2</v>
       </c>
       <c r="B6" s="12">
-        <f>C5</f>
+        <f t="shared" si="0"/>
         <v>0.38194444444444442</v>
       </c>
       <c r="C6" s="12">
         <v>0.41666666666666669</v>
       </c>
       <c r="D6" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4722222222222265E-2</v>
       </c>
       <c r="E6" t="s">
@@ -2466,14 +2484,14 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12">
-        <f>C6</f>
+        <f t="shared" si="0"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="C7" s="12">
         <v>0.43055555555555558</v>
       </c>
       <c r="D7" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="E7" t="s">
@@ -2488,14 +2506,14 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="B8" s="12">
-        <f t="shared" ref="B8:B9" si="1">C7</f>
+        <f t="shared" si="0"/>
         <v>0.43055555555555558</v>
       </c>
       <c r="C8" s="12">
         <v>0.4513888888888889</v>
       </c>
       <c r="D8" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="E8" t="s">
@@ -2510,14 +2528,14 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="B9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.4513888888888889</v>
       </c>
       <c r="C9" s="12">
         <v>0.46180555555555558</v>
       </c>
       <c r="D9" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="E9" t="s">
@@ -2532,14 +2550,14 @@
         <v>6.9444444444444753E-3</v>
       </c>
       <c r="B10" s="12">
-        <f>C9</f>
+        <f t="shared" si="0"/>
         <v>0.46180555555555558</v>
       </c>
       <c r="C10" s="12">
         <v>0.48958333333333331</v>
       </c>
       <c r="D10" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7777777777777735E-2</v>
       </c>
       <c r="E10" t="s">
@@ -2560,7 +2578,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D11" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.2083333333333315E-2</v>
       </c>
       <c r="E11" t="s">
@@ -2572,14 +2590,14 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="B12" s="12">
-        <f t="shared" ref="B12:B15" si="2">C11</f>
+        <f t="shared" ref="B12:B18" si="2">C11</f>
         <v>0.54166666666666663</v>
       </c>
       <c r="C12" s="12">
         <v>0.55555555555555558</v>
       </c>
       <c r="D12" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3888888888888951E-2</v>
       </c>
       <c r="E12" t="s">
@@ -2601,7 +2619,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D13" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E13" t="s">
@@ -2623,7 +2641,7 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="D14" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E14" t="s">
@@ -2645,7 +2663,7 @@
         <v>0.625</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E15" t="s">
@@ -2660,14 +2678,14 @@
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="B16" s="12">
-        <f>C15</f>
+        <f t="shared" si="2"/>
         <v>0.625</v>
       </c>
       <c r="C16" s="12">
         <v>0.64583333333333337</v>
       </c>
       <c r="D16" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E16" t="s">
@@ -2682,14 +2700,14 @@
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="B17" s="12">
-        <f>C16</f>
+        <f t="shared" si="2"/>
         <v>0.64583333333333337</v>
       </c>
       <c r="C17" s="12">
         <v>0.66666666666666663</v>
       </c>
       <c r="D17" s="12">
-        <f t="shared" ref="D17" si="3">C17-B17</f>
+        <f>C17-B17</f>
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="E17" t="s">
@@ -2704,14 +2722,14 @@
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="B18" s="12">
-        <f>C17</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="C18" s="12">
         <v>0.68055555555555547</v>
       </c>
       <c r="D18" s="12">
-        <f t="shared" ref="D18" si="4">C18-B18</f>
+        <f>C18-B18</f>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E18" t="s">
@@ -4123,8 +4141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4189,14 +4207,14 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="B5" s="12">
-        <f>C4</f>
+        <f t="shared" ref="B5:B13" si="0">C4</f>
         <v>0.3611111111111111</v>
       </c>
       <c r="C5" s="12">
         <v>0.375</v>
       </c>
       <c r="D5" s="12">
-        <f t="shared" ref="D5:D20" si="0">C5-B5</f>
+        <f t="shared" ref="D5:D20" si="1">C5-B5</f>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="E5" t="s">
@@ -4211,14 +4229,14 @@
         <v>1.3888888888888951E-2</v>
       </c>
       <c r="B6" s="12">
-        <f>C5</f>
+        <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
       <c r="C6" s="12">
         <v>0.39583333333333331</v>
       </c>
       <c r="D6" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="E6" t="s">
@@ -4231,14 +4249,14 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12">
-        <f>C6</f>
+        <f t="shared" si="0"/>
         <v>0.39583333333333331</v>
       </c>
       <c r="C7" s="12">
         <v>0.40972222222222227</v>
       </c>
       <c r="D7" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3888888888888951E-2</v>
       </c>
       <c r="E7" t="s">
@@ -4253,14 +4271,14 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="B8" s="12">
-        <f t="shared" ref="B8:B9" si="1">C7</f>
+        <f t="shared" si="0"/>
         <v>0.40972222222222227</v>
       </c>
       <c r="C8" s="12">
         <v>0.4236111111111111</v>
       </c>
       <c r="D8" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E8" t="s">
@@ -4275,14 +4293,14 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="B9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.4236111111111111</v>
       </c>
       <c r="C9" s="12">
         <v>0.47222222222222227</v>
       </c>
       <c r="D9" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.861111111111116E-2</v>
       </c>
       <c r="E9" t="s">
@@ -4297,7 +4315,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="B10" s="12">
-        <f t="shared" ref="B10" si="2">C9</f>
+        <f t="shared" si="0"/>
         <v>0.47222222222222227</v>
       </c>
       <c r="C10" s="12">
@@ -4319,14 +4337,14 @@
         <v>6.9444444444444753E-3</v>
       </c>
       <c r="B11" s="12">
-        <f>C10</f>
+        <f t="shared" si="0"/>
         <v>0.49305555555555558</v>
       </c>
       <c r="C11" s="12">
         <v>0.54166666666666663</v>
       </c>
       <c r="D11" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8611111111111049E-2</v>
       </c>
       <c r="E11" t="s">
@@ -4338,14 +4356,14 @@
         <v>6.9444444444444753E-3</v>
       </c>
       <c r="B12" s="12">
-        <f>C11</f>
+        <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="C12" s="12">
         <v>0.58333333333333337</v>
       </c>
       <c r="D12" s="12">
-        <f t="shared" ref="D12" si="3">C12-B12</f>
+        <f>C12-B12</f>
         <v>4.1666666666666741E-2</v>
       </c>
       <c r="E12" t="s">
@@ -4360,14 +4378,14 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="B13" s="12">
-        <f>C12</f>
+        <f t="shared" si="0"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="C13" s="12">
         <v>0.60416666666666663</v>
       </c>
       <c r="D13" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="E13" t="s">
@@ -4382,14 +4400,14 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="B14" s="12">
-        <f t="shared" ref="B14:B20" si="4">C13</f>
+        <f t="shared" ref="B14:B20" si="2">C13</f>
         <v>0.60416666666666663</v>
       </c>
       <c r="C14" s="12">
         <v>0.61805555555555558</v>
       </c>
       <c r="D14" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3888888888888951E-2</v>
       </c>
       <c r="E14" t="s">
@@ -4404,14 +4422,14 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="B15" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.61805555555555558</v>
       </c>
       <c r="C15" s="12">
         <v>0.63888888888888895</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E15" t="s">
@@ -4426,14 +4444,14 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="B16" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.63888888888888895</v>
       </c>
       <c r="C16" s="12">
         <v>0.65277777777777779</v>
       </c>
       <c r="D16" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E16" t="s">
@@ -4448,14 +4466,14 @@
         <v>6.9444444444444753E-3</v>
       </c>
       <c r="B17" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.65277777777777779</v>
       </c>
       <c r="C17" s="12">
         <v>0.66666666666666663</v>
       </c>
       <c r="D17" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E17" t="s">
@@ -4470,14 +4488,14 @@
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="B18" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="C18" s="12">
         <v>0.6875</v>
       </c>
       <c r="D18" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E18" t="s">
@@ -4492,14 +4510,14 @@
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="B19" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.6875</v>
       </c>
       <c r="C19" s="12">
         <v>0.70138888888888884</v>
       </c>
       <c r="D19" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E19" t="s">
@@ -4514,14 +4532,14 @@
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="B20" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.70138888888888884</v>
       </c>
       <c r="C20" s="12">
         <v>0.68055555555555547</v>
       </c>
       <c r="D20" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.083333333333337E-2</v>
       </c>
     </row>
@@ -4617,7 +4635,7 @@
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
-      <c r="E32" t="s">
+      <c r="E32" s="29" t="s">
         <v>333</v>
       </c>
     </row>
@@ -4626,7 +4644,7 @@
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
-      <c r="E33" t="s">
+      <c r="E33" s="29" t="s">
         <v>334</v>
       </c>
     </row>
@@ -4635,7 +4653,7 @@
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-      <c r="E34" t="s">
+      <c r="E34" s="29" t="s">
         <v>335</v>
       </c>
     </row>
@@ -4644,7 +4662,7 @@
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
-      <c r="E35" t="s">
+      <c r="E35" s="29" t="s">
         <v>338</v>
       </c>
     </row>
@@ -4653,7 +4671,7 @@
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
-      <c r="E36" t="s">
+      <c r="E36" s="29" t="s">
         <v>336</v>
       </c>
     </row>
@@ -4662,7 +4680,7 @@
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
-      <c r="E37" t="s">
+      <c r="E37" s="29" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4671,17 +4689,17 @@
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
-      <c r="E38" t="s">
+      <c r="E38" s="29" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E39" t="s">
+      <c r="E39" s="29" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E40" t="s">
+      <c r="E40" s="29" t="s">
         <v>341</v>
       </c>
     </row>
@@ -5233,7 +5251,7 @@
   <dimension ref="B1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5271,7 +5289,7 @@
   <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5316,7 +5334,7 @@
   <dimension ref="B3:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5412,7 +5430,7 @@
   <dimension ref="B3:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5438,7 +5456,7 @@
   <dimension ref="B2:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5464,7 +5482,7 @@
   <dimension ref="B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5487,7 +5505,7 @@
   <dimension ref="B3:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5512,6 +5530,578 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="51.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="50.85546875" style="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="D4" s="12">
+        <f>C4-B4</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="B5" s="12">
+        <f t="shared" ref="B5:B20" si="0">C4</f>
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" ref="D5:D20" si="1">C5-B5</f>
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="B6" s="12">
+        <f t="shared" si="0"/>
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" s="15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12">
+        <f t="shared" si="0"/>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F7" s="15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="1"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>328</v>
+      </c>
+      <c r="F8" s="15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B9" s="12">
+        <f t="shared" si="0"/>
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="1"/>
+        <v>4.861111111111116E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>316</v>
+      </c>
+      <c r="F9" s="15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B10" s="12">
+        <f t="shared" si="0"/>
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D10" s="12">
+        <f>C10-B10</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="B11" s="12">
+        <f t="shared" si="0"/>
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="1"/>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="B12" s="12">
+        <f t="shared" si="0"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D12" s="12">
+        <f>C12-B12</f>
+        <v>4.1666666666666741E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>317</v>
+      </c>
+      <c r="F12" s="15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="B13" s="12">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F13" s="15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="B14" s="12">
+        <f t="shared" si="0"/>
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="1"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>299</v>
+      </c>
+      <c r="F14" s="15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B15" s="12">
+        <f t="shared" si="0"/>
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="1"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>300</v>
+      </c>
+      <c r="F15" s="15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="B16" s="12">
+        <f t="shared" si="0"/>
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="1"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="B17" s="12">
+        <f t="shared" si="0"/>
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="1"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>296</v>
+      </c>
+      <c r="F17" s="15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="B18" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.6875</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="1"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F18" s="15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="B19" s="12">
+        <f t="shared" si="0"/>
+        <v>0.6875</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="1"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="B20" s="12">
+        <f t="shared" si="0"/>
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" si="1"/>
+        <v>-2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="29" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="29" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="29" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="29" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="29" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="29" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="29" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="29" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D3"/>
   <sheetViews>
@@ -5533,7 +6123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B9"/>
   <sheetViews>
@@ -5570,28 +6160,6 @@
       <c r="B9" t="s">
         <v>325</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5699,6 +6267,28 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -5949,55 +6539,55 @@
         <v>0.02</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ref="D10:D12" si="1">$C$9/C10*$C$4</f>
+        <f>$C$9/C10*$C$4</f>
         <v>158.5</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:P10" si="2">D10*E$6</f>
+        <f t="shared" ref="E10:P10" si="1">D10*E$6</f>
         <v>237750</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47550000</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10936500000</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2624760000000</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>656190000000000</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.706094E+17</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.6064538E+19</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.2898070640000001E+22</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.7404404856000003E+24</v>
       </c>
       <c r="N10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1221321456800001E+27</v>
       </c>
       <c r="O10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.4786096516080003E+29</v>
       </c>
       <c r="P10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1131550885145601E+32</v>
       </c>
     </row>
@@ -6009,55 +6599,55 @@
         <v>3.8</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
+        <f>$C$9/C11*$C$4</f>
         <v>0.83421052631578951</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:P11" si="3">D11*E$6</f>
+        <f t="shared" ref="E11:P11" si="2">D11*E$6</f>
         <v>1251.3157894736842</v>
       </c>
       <c r="F11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250263.15789473683</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>57560526.315789469</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13814526315.789473</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3453631578947.3682</v>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>897944210526315.75</v>
       </c>
       <c r="K11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.4244493684210525E+17</v>
       </c>
       <c r="L11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.7884582315789468E+19</v>
       </c>
       <c r="M11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.9686528871578947E+22</v>
       </c>
       <c r="N11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.9059586614736843E+24</v>
       </c>
       <c r="O11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.8308471850568421E+27</v>
       </c>
       <c r="P11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.8587109921818949E+29</v>
       </c>
     </row>
@@ -6069,55 +6659,55 @@
         <v>0.3</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="1"/>
+        <f>$C$9/C12*$C$4</f>
         <v>10.566666666666666</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:P12" si="4">D12*E$6</f>
+        <f t="shared" ref="E12:P12" si="3">D12*E$6</f>
         <v>15850</v>
       </c>
       <c r="F12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3170000</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>729100000</v>
       </c>
       <c r="H12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>174984000000</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>43746000000000</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.137396E+16</v>
       </c>
       <c r="K12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.0709692E+18</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8.5987137599999993E+20</v>
       </c>
       <c r="M12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.4936269903999999E+23</v>
       </c>
       <c r="N12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.4808809711999994E+25</v>
       </c>
       <c r="O12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.3190731010719999E+28</v>
       </c>
       <c r="P12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.4210339234303991E+30</v>
       </c>
     </row>

--- a/Professor/Material de Acompanhamento_v3.xlsx
+++ b/Professor/Material de Acompanhamento_v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="36" activeTab="36"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="36" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="Aula 1" sheetId="17" state="hidden" r:id="rId1"/>
@@ -49,12 +49,14 @@
     <sheet name="73" sheetId="48" state="hidden" r:id="rId35"/>
     <sheet name="74" sheetId="50" state="hidden" r:id="rId36"/>
     <sheet name="Aula 6" sheetId="54" r:id="rId37"/>
-    <sheet name="75" sheetId="52" r:id="rId38"/>
-    <sheet name="72" sheetId="47" r:id="rId39"/>
-    <sheet name="76" sheetId="53" r:id="rId40"/>
+    <sheet name="72" sheetId="47" state="hidden" r:id="rId38"/>
+    <sheet name="76" sheetId="52" r:id="rId39"/>
+    <sheet name="77" sheetId="57" r:id="rId40"/>
+    <sheet name="78" sheetId="53" r:id="rId41"/>
+    <sheet name="79" sheetId="55" r:id="rId42"/>
+    <sheet name="80" sheetId="58" r:id="rId43"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="360">
   <si>
     <t>Lista de Compras</t>
   </si>
@@ -1078,9 +1080,6 @@
     <t>Demonstração Duplicatas</t>
   </si>
   <si>
-    <t>Arquivo Exercicios se.</t>
-  </si>
-  <si>
     <t>tabela de Vendedores e pedir para caluclarem a nova comissão</t>
   </si>
   <si>
@@ -1117,13 +1116,61 @@
     <t>Filtro avançado</t>
   </si>
   <si>
-    <t>Relembrar explicação do SE</t>
-  </si>
-  <si>
     <t>Exercicio se</t>
   </si>
   <si>
     <t>Correção do SE</t>
+  </si>
+  <si>
+    <t>tabela de vendedores</t>
+  </si>
+  <si>
+    <t>&gt;&gt;Conciliação, Relatorio de Vendas</t>
+  </si>
+  <si>
+    <t>SE para Tabela de Vendedores</t>
+  </si>
+  <si>
+    <t>Exercicios Tabela de Vendedores Aninhados</t>
+  </si>
+  <si>
+    <t>Explicação SE Aninhado e Auditor de Formulas</t>
+  </si>
+  <si>
+    <t>LEMBRAR QUE É UMA HIPOTESE.</t>
+  </si>
+  <si>
+    <t>Arquivo EXEMPLO SE</t>
+  </si>
+  <si>
+    <t>MOSTRAR COMO AVALIAR SE COM O aUdiTOR DE FORMULAS</t>
+  </si>
+  <si>
+    <t>usar primeiro o arquivo de EXEMPLO SE para explicar aninhamento</t>
+  </si>
+  <si>
+    <t>Mostrar TODAS AS ABAS.</t>
+  </si>
+  <si>
+    <t>ARQUIVO EXERCICIO SE</t>
+  </si>
+  <si>
+    <t>Relembrar explicação do SE e e EXERCIO EXEMPLO SE</t>
+  </si>
+  <si>
+    <t>CORRECAO SE TABELA VENDEDORES</t>
+  </si>
+  <si>
+    <t>tabela EXEMPLO SE</t>
+  </si>
+  <si>
+    <t>arquivo tabela de vendedores</t>
+  </si>
+  <si>
+    <t>Pedir para usarem uma única coluna</t>
+  </si>
+  <si>
+    <t>Demonstração de Inteervalo Nomeado</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1293,6 +1340,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4636,7 +4684,7 @@
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
@@ -4645,7 +4693,7 @@
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
@@ -4654,7 +4702,7 @@
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
@@ -4663,7 +4711,7 @@
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
@@ -4672,7 +4720,7 @@
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4681,7 +4729,7 @@
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4690,17 +4738,17 @@
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E39" s="29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E40" s="29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -5512,7 +5560,7 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5521,7 +5569,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -5531,21 +5579,21 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H40"/>
+  <dimension ref="A2:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="51.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="15" customWidth="1"/>
     <col min="7" max="7" width="50.85546875" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F2" s="15" t="s">
         <v>112</v>
       </c>
@@ -5553,7 +5601,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>150</v>
       </c>
@@ -5573,7 +5621,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>6.9444444444444753E-3</v>
       </c>
@@ -5591,10 +5639,13 @@
         <v>151</v>
       </c>
       <c r="F4" s="15">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="I4">
+        <v>6.9444444444444198E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -5603,222 +5654,261 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="C5" s="12">
-        <v>0.36805555555555558</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" ref="D5:D20" si="1">C5-B5</f>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F5" s="15">
+        <v>76</v>
+      </c>
+      <c r="I5">
         <v>6.9444444444444753E-3</v>
       </c>
-      <c r="E5" t="s">
-        <v>342</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>1.3888888888888951E-2</v>
       </c>
       <c r="B6" s="12">
         <f t="shared" si="0"/>
-        <v>0.36805555555555558</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C6" s="12">
-        <v>0.3888888888888889</v>
+        <f>B6+I6</f>
+        <v>0.40972222222222221</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="1"/>
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F6" s="15">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="I6">
+        <v>2.0833333333333315E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12">
         <f t="shared" si="0"/>
-        <v>0.3888888888888889</v>
+        <v>0.40972222222222221</v>
       </c>
       <c r="C7" s="12">
-        <v>0.39583333333333331</v>
+        <f t="shared" ref="C7:C20" si="2">B7+I7</f>
+        <v>0.41666666666666663</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="1"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F7" s="15">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="I7">
+        <v>6.9444444444444198E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="B8" s="12">
         <f t="shared" si="0"/>
-        <v>0.39583333333333331</v>
+        <v>0.41666666666666663</v>
       </c>
       <c r="C8" s="12">
-        <v>0.4236111111111111</v>
+        <f t="shared" si="2"/>
+        <v>0.4375</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="1"/>
-        <v>2.777777777777779E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="F8" s="15">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="I8">
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="B9" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" si="2"/>
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>355</v>
+      </c>
+      <c r="F9" s="15">
+        <v>79</v>
+      </c>
+      <c r="I9">
+        <v>6.9444444444444198E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>0.4236111111111111</v>
       </c>
-      <c r="C9" s="12">
-        <v>0.47222222222222227</v>
-      </c>
-      <c r="D9" s="12">
-        <f t="shared" si="1"/>
-        <v>4.861111111111116E-2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>316</v>
-      </c>
-      <c r="F9" s="15">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>6.9444444444444198E-3</v>
-      </c>
-      <c r="B10" s="12">
-        <f t="shared" si="0"/>
-        <v>0.47222222222222227</v>
-      </c>
       <c r="C10" s="12">
-        <v>0.49305555555555558</v>
+        <f t="shared" si="2"/>
+        <v>0.44444444444444442</v>
       </c>
       <c r="D10" s="12">
         <f>C10-B10</f>
         <v>2.0833333333333315E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>347</v>
       </c>
       <c r="F10" s="15">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="I10">
+        <v>2.0833333333333315E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>6.9444444444444753E-3</v>
       </c>
       <c r="B11" s="12">
         <f t="shared" si="0"/>
-        <v>0.49305555555555558</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="C11" s="12">
-        <v>0.54166666666666663</v>
+        <v>0.46875</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="1"/>
-        <v>4.8611111111111049E-2</v>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+      <c r="F11" s="15">
+        <v>79</v>
+      </c>
+      <c r="I11">
+        <v>6.9444444444444753E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>6.9444444444444753E-3</v>
       </c>
       <c r="B12" s="12">
         <f t="shared" si="0"/>
-        <v>0.54166666666666663</v>
+        <v>0.46875</v>
       </c>
       <c r="C12" s="12">
-        <v>0.58333333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D12" s="12">
         <f>C12-B12</f>
-        <v>4.1666666666666741E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>317</v>
+        <v>122</v>
       </c>
       <c r="F12" s="15">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="I12">
+        <v>0.13194444444444448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>1.388888888888884E-2</v>
       </c>
       <c r="B13" s="12">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="C13" s="12">
-        <v>0.60416666666666663</v>
+        <f t="shared" si="2"/>
+        <v>0.49999999999999994</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="1"/>
         <v>2.0833333333333259E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>298</v>
+        <v>359</v>
       </c>
       <c r="F13" s="15">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+        <v>81</v>
+      </c>
+      <c r="I13">
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="B14" s="12">
         <f t="shared" si="0"/>
-        <v>0.60416666666666663</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="C14" s="12">
-        <v>0.61805555555555558</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="1"/>
-        <v>1.3888888888888951E-2</v>
+        <v>5.2083333333333426E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>299</v>
+        <v>126</v>
       </c>
       <c r="F14" s="15">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>1.3888888888888951E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="B15" s="12">
         <f t="shared" si="0"/>
-        <v>0.61805555555555558</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="C15" s="12">
-        <v>0.63888888888888895</v>
+        <f t="shared" si="2"/>
+        <v>0.57291666666666674</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="1"/>
@@ -5830,17 +5920,21 @@
       <c r="F15" s="15">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="B16" s="12">
         <f t="shared" si="0"/>
-        <v>0.63888888888888895</v>
+        <v>0.57291666666666674</v>
       </c>
       <c r="C16" s="12">
-        <v>0.65277777777777779</v>
+        <f t="shared" si="2"/>
+        <v>0.58680555555555558</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="1"/>
@@ -5852,17 +5946,21 @@
       <c r="F16" s="15">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>1.388888888888884E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>6.9444444444444753E-3</v>
       </c>
       <c r="B17" s="12">
         <f t="shared" si="0"/>
-        <v>0.65277777777777779</v>
+        <v>0.58680555555555558</v>
       </c>
       <c r="C17" s="12">
-        <v>0.66666666666666663</v>
+        <f t="shared" si="2"/>
+        <v>0.60069444444444442</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="1"/>
@@ -5874,17 +5972,21 @@
       <c r="F17" s="15">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>1.388888888888884E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="B18" s="12">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.60069444444444442</v>
       </c>
       <c r="C18" s="12">
-        <v>0.6875</v>
+        <f t="shared" si="2"/>
+        <v>0.62152777777777779</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="1"/>
@@ -5896,17 +5998,21 @@
       <c r="F18" s="15">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="B19" s="12">
         <f t="shared" si="0"/>
-        <v>0.6875</v>
+        <v>0.62152777777777779</v>
       </c>
       <c r="C19" s="12">
-        <v>0.70138888888888884</v>
+        <f t="shared" si="2"/>
+        <v>0.63541666666666663</v>
       </c>
       <c r="D19" s="12">
         <f t="shared" si="1"/>
@@ -5918,24 +6024,31 @@
       <c r="F19" s="15">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>1.388888888888884E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="B20" s="12">
         <f t="shared" si="0"/>
-        <v>0.70138888888888884</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="C20" s="12">
-        <v>0.68055555555555547</v>
+        <f t="shared" si="2"/>
+        <v>0.61458333333333326</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="1"/>
         <v>-2.083333333333337E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>-2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -5944,7 +6057,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -5953,25 +6066,25 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -5980,7 +6093,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -5989,7 +6102,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -5998,7 +6111,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -6007,7 +6120,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -6016,83 +6129,84 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="29" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="29" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="29" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="29" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="29" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
       <c r="E37" s="29" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="29" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E39" s="29" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E40" s="29" t="s">
-        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -6102,28 +6216,6 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H32:H33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B9"/>
   <sheetViews>
@@ -6159,6 +6251,41 @@
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -6272,17 +6399,104 @@
   <dimension ref="B2:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="57.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="57.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>358</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Professor/Material de Acompanhamento_v3.xlsx
+++ b/Professor/Material de Acompanhamento_v3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\fenrir\Professor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\Fenrir\Professor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="36" activeTab="42"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="36" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="Aula 1" sheetId="17" state="hidden" r:id="rId1"/>
@@ -55,8 +55,9 @@
     <sheet name="78" sheetId="53" r:id="rId41"/>
     <sheet name="79" sheetId="55" r:id="rId42"/>
     <sheet name="80" sheetId="58" r:id="rId43"/>
+    <sheet name="81" sheetId="59" r:id="rId44"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="368">
   <si>
     <t>Lista de Compras</t>
   </si>
@@ -1171,6 +1172,30 @@
   </si>
   <si>
     <t>Demonstração de Inteervalo Nomeado</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>INtervalor NOMEADO EXERCICIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INtervalo NOMEADO - Arquivo EXEMPLO VENDAS INTERVALO NOMEADO </t>
+  </si>
+  <si>
+    <t>Mostrat INtervalo e fazer uma multiplicação de VALOR TOTAL (QTD x VENDA) e PROCV.</t>
+  </si>
+  <si>
+    <t>mostrar que funciona se formula pegar nome do intervalo em  celula externa</t>
+  </si>
+  <si>
+    <t>citar regras para nome de intervalo</t>
+  </si>
+  <si>
+    <t>Tabela</t>
+  </si>
+  <si>
+    <t>TABELA DINAMICA</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1341,6 +1366,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5581,8 +5607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5891,9 +5917,6 @@
       <c r="E14" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="15">
-        <v>72</v>
-      </c>
       <c r="I14">
         <v>1.3888888888888951E-2</v>
       </c>
@@ -5907,18 +5930,17 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="C15" s="12">
-        <f t="shared" si="2"/>
-        <v>0.57291666666666674</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="1"/>
-        <v>2.083333333333337E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>300</v>
+        <v>361</v>
       </c>
       <c r="F15" s="15">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I15">
         <v>2.083333333333337E-2</v>
@@ -5930,11 +5952,11 @@
       </c>
       <c r="B16" s="12">
         <f t="shared" si="0"/>
-        <v>0.57291666666666674</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C16" s="12">
         <f t="shared" si="2"/>
-        <v>0.58680555555555558</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="1"/>
@@ -5956,18 +5978,18 @@
       </c>
       <c r="B17" s="12">
         <f t="shared" si="0"/>
-        <v>0.58680555555555558</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="C17" s="12">
         <f t="shared" si="2"/>
-        <v>0.60069444444444442</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="1"/>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>296</v>
+        <v>366</v>
       </c>
       <c r="F17" s="15">
         <v>74</v>
@@ -5982,18 +6004,18 @@
       </c>
       <c r="B18" s="12">
         <f t="shared" si="0"/>
-        <v>0.60069444444444442</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="C18" s="12">
         <f t="shared" si="2"/>
-        <v>0.62152777777777779</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="1"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>297</v>
+        <v>367</v>
       </c>
       <c r="F18" s="15">
         <v>75</v>
@@ -6008,11 +6030,11 @@
       </c>
       <c r="B19" s="12">
         <f t="shared" si="0"/>
-        <v>0.62152777777777779</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="C19" s="12">
         <f t="shared" si="2"/>
-        <v>0.63541666666666663</v>
+        <v>0.64583333333333326</v>
       </c>
       <c r="D19" s="12">
         <f t="shared" si="1"/>
@@ -6034,11 +6056,11 @@
       </c>
       <c r="B20" s="12">
         <f t="shared" si="0"/>
-        <v>0.63541666666666663</v>
+        <v>0.64583333333333326</v>
       </c>
       <c r="C20" s="12">
         <f t="shared" si="2"/>
-        <v>0.61458333333333326</v>
+        <v>0.62499999999999989</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="1"/>
@@ -6139,7 +6161,9 @@
       <c r="A32" s="23"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="12" t="s">
+        <v>360</v>
+      </c>
       <c r="E32" s="29" t="s">
         <v>338</v>
       </c>
@@ -6148,7 +6172,9 @@
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="12" t="s">
+        <v>360</v>
+      </c>
       <c r="E33" s="29" t="s">
         <v>339</v>
       </c>
@@ -6157,7 +6183,9 @@
       <c r="A34" s="23"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="12" t="s">
+        <v>360</v>
+      </c>
       <c r="E34" s="29" t="s">
         <v>332</v>
       </c>
@@ -6478,8 +6506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6500,6 +6528,48 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:E10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="67.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Professor/Material de Acompanhamento_v3.xlsx
+++ b/Professor/Material de Acompanhamento_v3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\Fenrir\Professor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\fenrir\Professor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,6 +56,9 @@
     <sheet name="79" sheetId="55" r:id="rId42"/>
     <sheet name="80" sheetId="58" r:id="rId43"/>
     <sheet name="81" sheetId="59" r:id="rId44"/>
+    <sheet name="82" sheetId="60" r:id="rId45"/>
+    <sheet name="83" sheetId="62" r:id="rId46"/>
+    <sheet name="84" sheetId="65" r:id="rId47"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
@@ -67,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="390">
   <si>
     <t>Lista de Compras</t>
   </si>
@@ -1180,9 +1183,6 @@
     <t>INtervalor NOMEADO EXERCICIO</t>
   </si>
   <si>
-    <t xml:space="preserve">INtervalo NOMEADO - Arquivo EXEMPLO VENDAS INTERVALO NOMEADO </t>
-  </si>
-  <si>
     <t>Mostrat INtervalo e fazer uma multiplicação de VALOR TOTAL (QTD x VENDA) e PROCV.</t>
   </si>
   <si>
@@ -1195,7 +1195,76 @@
     <t>Tabela</t>
   </si>
   <si>
-    <t>TABELA DINAMICA</t>
+    <t xml:space="preserve">Intervalo NOMEADO - Arquivo EXEMPLO VENDAS INTERVALO NOMEADO </t>
+  </si>
+  <si>
+    <t>ARQUIVO  VENDAS INTERVALO NOMEADO.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - fazer exemplo onde alteramos somnte o nome do BANCO DE DADOS e o excel pega a nova seleção</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>ICMS</t>
+  </si>
+  <si>
+    <t>TABELA</t>
+  </si>
+  <si>
+    <t>Mostar a inserção automatica ao intervalo nomeado</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>CAMPOS</t>
+  </si>
+  <si>
+    <t>Demonstração Tabela Dinamica</t>
+  </si>
+  <si>
+    <t>Exercicio VENDAS</t>
+  </si>
+  <si>
+    <t>Exercicio Conciliação</t>
+  </si>
+  <si>
+    <t>Arquivo tabela de Vendedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Mostrar Agrupamentos por DATA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - CAMPOS CALCULADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Mostrar Resumo de CONTAGEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Mostrar calculos nos subtotais.</t>
+  </si>
+  <si>
+    <t>-  %de participação e FILTRO</t>
+  </si>
+  <si>
+    <t>Fazer se com data de vencimento na aba "Planilha de Boletos".</t>
+  </si>
+  <si>
+    <t>Em colunas separadas...passo a passo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt; fazer exemplo de auditoria com DIAS atrasados x JUROS (aba de boletos).</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1367,11 +1436,16 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1382,6 +1456,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B8:C12" totalsRowShown="0">
+  <autoFilter ref="B8:C12"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="UF"/>
+    <tableColumn id="2" name="ICMS" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5608,7 +5693,7 @@
   <dimension ref="A2:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5705,7 +5790,6 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="C6" s="12">
-        <f>B6+I6</f>
         <v>0.40972222222222221</v>
       </c>
       <c r="D6" s="12">
@@ -5729,7 +5813,6 @@
         <v>0.40972222222222221</v>
       </c>
       <c r="C7" s="12">
-        <f t="shared" ref="C7:C20" si="2">B7+I7</f>
         <v>0.41666666666666663</v>
       </c>
       <c r="D7" s="12">
@@ -5755,7 +5838,6 @@
         <v>0.41666666666666663</v>
       </c>
       <c r="C8" s="12">
-        <f t="shared" si="2"/>
         <v>0.4375</v>
       </c>
       <c r="D8" s="12">
@@ -5780,7 +5862,6 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C9" s="12">
-        <f t="shared" si="2"/>
         <v>0.4236111111111111</v>
       </c>
       <c r="D9" s="12">
@@ -5806,7 +5887,6 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="C10" s="12">
-        <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="D10" s="12">
@@ -5882,7 +5962,6 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="C13" s="12">
-        <f t="shared" si="2"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="D13" s="12">
@@ -5955,7 +6034,6 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="C16" s="12">
-        <f t="shared" si="2"/>
         <v>0.59722222222222221</v>
       </c>
       <c r="D16" s="12">
@@ -5966,7 +6044,7 @@
         <v>122</v>
       </c>
       <c r="F16" s="15">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I16">
         <v>1.388888888888884E-2</v>
@@ -5981,18 +6059,17 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="C17" s="12">
-        <f t="shared" si="2"/>
-        <v>0.61111111111111105</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="1"/>
-        <v>1.388888888888884E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F17" s="15">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>1.388888888888884E-2</v>
@@ -6004,21 +6081,20 @@
       </c>
       <c r="B18" s="12">
         <f t="shared" si="0"/>
-        <v>0.61111111111111105</v>
+        <v>0.61805555555555558</v>
       </c>
       <c r="C18" s="12">
-        <f t="shared" si="2"/>
         <v>0.63194444444444442</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="1"/>
-        <v>2.083333333333337E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="F18" s="15">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I18">
         <v>2.083333333333337E-2</v>
@@ -6033,18 +6109,17 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="C19" s="12">
-        <f t="shared" si="2"/>
-        <v>0.64583333333333326</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="D19" s="12">
         <f t="shared" si="1"/>
-        <v>1.388888888888884E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>379</v>
       </c>
       <c r="F19" s="15">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I19">
         <v>1.388888888888884E-2</v>
@@ -6055,37 +6130,68 @@
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="B20" s="12">
-        <f t="shared" si="0"/>
-        <v>0.64583333333333326</v>
+        <f>C19</f>
+        <v>0.65972222222222221</v>
       </c>
       <c r="C20" s="12">
-        <f t="shared" si="2"/>
-        <v>0.62499999999999989</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D20" s="12">
-        <f t="shared" si="1"/>
-        <v>-2.083333333333337E-2</v>
+        <f>C20-B20</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="15">
+        <v>84</v>
       </c>
       <c r="I20">
         <v>-2.083333333333337E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="A21" s="12">
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="B21" s="12">
+        <f>C20</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="D21" s="12">
+        <f>C21-B21</f>
+        <v>2.7777777777777901E-2</v>
+      </c>
       <c r="E21" t="s">
-        <v>261</v>
+        <v>380</v>
+      </c>
+      <c r="F21" s="15">
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="A22" s="12">
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="B22" s="12">
+        <f>C21</f>
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D22" s="12">
+        <f>C22-B22</f>
+        <v>1.388888888888884E-2</v>
+      </c>
       <c r="E22" t="s">
         <v>122</v>
+      </c>
+      <c r="F22" s="15">
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -6291,7 +6397,7 @@
   <dimension ref="B3:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6309,6 +6415,11 @@
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -6446,10 +6557,10 @@
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D2"/>
+  <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6464,6 +6575,11 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>388</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6471,10 +6587,10 @@
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B8"/>
+  <dimension ref="B2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6495,6 +6611,11 @@
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -6533,10 +6654,10 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E10"/>
+  <dimension ref="B4:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6546,7 +6667,7 @@
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
@@ -6554,22 +6675,214 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>365</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>377</v>
+      </c>
+      <c r="H7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G8" t="s">
+        <v>372</v>
+      </c>
+      <c r="H8">
+        <f>VLOOKUP(G8,Tabela1[#All],2,0)</f>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="32">
+        <v>0.18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>372</v>
+      </c>
+      <c r="H9">
+        <f>VLOOKUP(G9,Tabela1[#All],2,0)</f>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0.19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>371</v>
+      </c>
+      <c r="H10">
+        <f>VLOOKUP(G10,Tabela1[#All],2,0)</f>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" s="32">
+        <v>0.17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>370</v>
+      </c>
+      <c r="H11">
+        <f>VLOOKUP(G11,Tabela1[#All],2,0)</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C12" s="32">
+        <v>0.15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>376</v>
+      </c>
+      <c r="H12">
+        <f>VLOOKUP(G12,Tabela1[#All],2,0)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 

--- a/Professor/Material de Acompanhamento_v3.xlsx
+++ b/Professor/Material de Acompanhamento_v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="36" activeTab="36"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="38" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="Aula 1" sheetId="17" state="hidden" r:id="rId1"/>
@@ -48,19 +48,23 @@
     <sheet name="71" sheetId="34" state="hidden" r:id="rId34"/>
     <sheet name="73" sheetId="48" state="hidden" r:id="rId35"/>
     <sheet name="74" sheetId="50" state="hidden" r:id="rId36"/>
-    <sheet name="Aula 6" sheetId="54" r:id="rId37"/>
+    <sheet name="Aula 6" sheetId="54" state="hidden" r:id="rId37"/>
     <sheet name="72" sheetId="47" state="hidden" r:id="rId38"/>
-    <sheet name="76" sheetId="52" r:id="rId39"/>
-    <sheet name="77" sheetId="57" r:id="rId40"/>
-    <sheet name="78" sheetId="53" r:id="rId41"/>
-    <sheet name="79" sheetId="55" r:id="rId42"/>
-    <sheet name="80" sheetId="58" r:id="rId43"/>
-    <sheet name="81" sheetId="59" r:id="rId44"/>
-    <sheet name="82" sheetId="60" r:id="rId45"/>
-    <sheet name="83" sheetId="62" r:id="rId46"/>
-    <sheet name="84" sheetId="65" r:id="rId47"/>
+    <sheet name="Aula 7" sheetId="66" r:id="rId39"/>
+    <sheet name="Planilha3" sheetId="68" r:id="rId40"/>
+    <sheet name="76" sheetId="52" state="hidden" r:id="rId41"/>
+    <sheet name="77" sheetId="57" state="hidden" r:id="rId42"/>
+    <sheet name="78" sheetId="53" state="hidden" r:id="rId43"/>
+    <sheet name="79" sheetId="55" state="hidden" r:id="rId44"/>
+    <sheet name="80" sheetId="58" state="hidden" r:id="rId45"/>
+    <sheet name="81" sheetId="59" state="hidden" r:id="rId46"/>
+    <sheet name="82" sheetId="60" state="hidden" r:id="rId47"/>
+    <sheet name="83" sheetId="62" state="hidden" r:id="rId48"/>
+    <sheet name="84" sheetId="65" state="hidden" r:id="rId49"/>
+    <sheet name="85" sheetId="67" r:id="rId50"/>
+    <sheet name="86" sheetId="69" r:id="rId51"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="416">
   <si>
     <t>Lista de Compras</t>
   </si>
@@ -1265,6 +1269,84 @@
   </si>
   <si>
     <t xml:space="preserve"> &gt; fazer exemplo de auditoria com DIAS atrasados x JUROS (aba de boletos).</t>
+  </si>
+  <si>
+    <t>Tabela Dinamica</t>
+  </si>
+  <si>
+    <t>Grafico Dinamico</t>
+  </si>
+  <si>
+    <t>Fonte Externa Dinamica</t>
+  </si>
+  <si>
+    <t>DashBoar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Tabela</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Formatação Condicional</t>
+  </si>
+  <si>
+    <t>Relembrar tabela Dinamica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  Mostar Proprieda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Nbão pode ter campos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Nostrar detalhes no numero</t>
+  </si>
+  <si>
+    <t>- Criar campo calculado</t>
+  </si>
+  <si>
+    <t>Demonstar CAMPO CALCULADo</t>
+  </si>
+  <si>
+    <t>Pedir para Calcular CAMPO CALCULADO</t>
+  </si>
+  <si>
+    <t>Mostrar Conciliação</t>
+  </si>
+  <si>
+    <t>Exercicio Conciliaçção</t>
+  </si>
+  <si>
+    <t>Correção da Conciliação</t>
+  </si>
+  <si>
+    <t>Mostrar Grtafico Dinamico</t>
+  </si>
+  <si>
+    <t>Pedir Grafico Dinamicco</t>
+  </si>
+  <si>
+    <t>Mostrar Conexão De dados Dinamica</t>
+  </si>
+  <si>
+    <t>Pedir Demonstração simnples de conexão</t>
+  </si>
+  <si>
+    <t>Exercicios de DAshBoard1</t>
+  </si>
+  <si>
+    <t>Exercicios DashBoard2</t>
+  </si>
+  <si>
+    <t>Imposrtação Dinamica de Arquivo Externo</t>
+  </si>
+  <si>
+    <t>Exercicios Oiportação Externa</t>
+  </si>
+  <si>
+    <t>Mostrar Importação</t>
+  </si>
+  <si>
+    <t>Mostrar Impressão</t>
   </si>
 </sst>
 </file>
@@ -5690,10 +5772,10 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I39"/>
+  <dimension ref="A2:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5761,14 +5843,14 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="B5" s="12">
-        <f t="shared" ref="B5:B20" si="0">C4</f>
+        <f t="shared" ref="B5:B19" si="0">C4</f>
         <v>0.3611111111111111</v>
       </c>
       <c r="C5" s="12">
         <v>0.3888888888888889</v>
       </c>
       <c r="D5" s="12">
-        <f t="shared" ref="D5:D20" si="1">C5-B5</f>
+        <f t="shared" ref="D5:D19" si="1">C5-B5</f>
         <v>2.777777777777779E-2</v>
       </c>
       <c r="E5" t="s">
@@ -6341,6 +6423,36 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E39" s="29" t="s">
         <v>340</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -6394,41 +6506,692 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D9"/>
+  <dimension ref="A2:I48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="51.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="50.85546875" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>352</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="B4" s="12">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="D4" s="12">
+        <f>C4-B4</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="15">
+        <v>75</v>
+      </c>
+      <c r="I4">
+        <v>6.9444444444444198E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="B5" s="12">
+        <f t="shared" ref="B5:B19" si="0">C4</f>
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" ref="D5:D19" si="1">C5-B5</f>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F5" s="15">
+        <v>76</v>
+      </c>
+      <c r="I5">
+        <v>6.9444444444444753E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="B6" s="12">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>401</v>
+      </c>
+      <c r="F6" s="15">
+        <v>77</v>
+      </c>
+      <c r="I6">
+        <v>2.0833333333333315E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12">
+        <f t="shared" si="0"/>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="1"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F7" s="15">
+        <v>77</v>
+      </c>
+      <c r="I7">
+        <v>6.9444444444444198E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B8" s="12">
+        <f t="shared" si="0"/>
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="1"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>403</v>
+      </c>
+      <c r="F8" s="15">
+        <v>78</v>
+      </c>
+      <c r="I8">
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B9" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="1"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>404</v>
+      </c>
+      <c r="F9" s="15">
+        <v>79</v>
+      </c>
+      <c r="I9">
+        <v>6.9444444444444198E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B10" s="12">
+        <f t="shared" si="0"/>
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D10" s="12">
+        <f>C10-B10</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>405</v>
+      </c>
+      <c r="F10" s="15">
+        <v>79</v>
+      </c>
+      <c r="I10">
+        <v>2.0833333333333315E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="B11" s="12">
+        <f t="shared" si="0"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.46875</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F11" s="15">
+        <v>79</v>
+      </c>
+      <c r="I11">
+        <v>6.9444444444444753E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="B12" s="12">
+        <f t="shared" si="0"/>
+        <v>0.46875</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D12" s="12">
+        <f>C12-B12</f>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>407</v>
+      </c>
+      <c r="F12" s="15">
+        <v>79</v>
+      </c>
+      <c r="I12">
+        <v>0.13194444444444448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="B13" s="12">
+        <f t="shared" si="0"/>
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="1"/>
+        <v>5.2083333333333315E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="15">
+        <v>81</v>
+      </c>
+      <c r="I13">
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="B14" s="12">
+        <f t="shared" si="0"/>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>408</v>
+      </c>
+      <c r="I14">
+        <v>1.3888888888888951E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B15" s="12">
+        <f t="shared" si="0"/>
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.5625</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="1"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>409</v>
+      </c>
+      <c r="F15" s="15">
+        <v>82</v>
+      </c>
+      <c r="I15">
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="B16" s="12">
+        <f t="shared" si="0"/>
+        <v>0.5625</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="1"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>410</v>
+      </c>
+      <c r="F16" s="15">
+        <v>82</v>
+      </c>
+      <c r="I16">
+        <v>1.388888888888884E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="B17" s="12">
+        <f t="shared" si="0"/>
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="1"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>411</v>
+      </c>
+      <c r="F17" s="15">
+        <v>83</v>
+      </c>
+      <c r="I17">
+        <v>1.388888888888884E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="B18" s="12">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="1"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>412</v>
+      </c>
+      <c r="F18" s="15">
+        <v>84</v>
+      </c>
+      <c r="I18">
+        <v>2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="B19" s="12">
+        <f t="shared" si="0"/>
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>413</v>
+      </c>
+      <c r="F19" s="15">
+        <v>84</v>
+      </c>
+      <c r="I19">
+        <v>1.388888888888884E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="B20" s="12">
+        <f>C19</f>
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D20" s="12">
+        <f>C20-B20</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="15">
+        <v>84</v>
+      </c>
+      <c r="I20">
+        <v>-2.083333333333337E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="B21" s="12">
+        <f>C20</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="D21" s="12">
+        <f>C21-B21</f>
+        <v>2.7777777777777901E-2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>414</v>
+      </c>
+      <c r="F21" s="15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="B22" s="12">
+        <f>C21</f>
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D22" s="12">
+        <f>C22-B22</f>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>415</v>
+      </c>
+      <c r="F22" s="15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="29" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="29" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="29" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6535,10 +7298,68 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B3:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="B2:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6555,12 +7376,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6585,12 +7409,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="B2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6623,12 +7450,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6652,12 +7482,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="B4:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6699,12 +7532,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="B2:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6723,8 +7559,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6838,7 +7677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E15"/>
   <sheetViews>
@@ -6942,6 +7781,89 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/Professor/Material de Acompanhamento_v3.xlsx
+++ b/Professor/Material de Acompanhamento_v3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\fenrir\Professor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\Fenrir\Professor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6509,7 +6509,7 @@
   <dimension ref="A2:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Professor/Material de Acompanhamento_v3.xlsx
+++ b/Professor/Material de Acompanhamento_v3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\Aulas Excel Basico\Fenrir\Professor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\fenrir\Professor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="38" activeTab="38"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="38" activeTab="54"/>
   </bookViews>
   <sheets>
     <sheet name="Aula 1" sheetId="17" state="hidden" r:id="rId1"/>
@@ -50,20 +50,27 @@
     <sheet name="74" sheetId="50" state="hidden" r:id="rId36"/>
     <sheet name="Aula 6" sheetId="54" state="hidden" r:id="rId37"/>
     <sheet name="72" sheetId="47" state="hidden" r:id="rId38"/>
-    <sheet name="Aula 7" sheetId="66" r:id="rId39"/>
-    <sheet name="Planilha3" sheetId="68" r:id="rId40"/>
-    <sheet name="76" sheetId="52" state="hidden" r:id="rId41"/>
-    <sheet name="77" sheetId="57" state="hidden" r:id="rId42"/>
-    <sheet name="78" sheetId="53" state="hidden" r:id="rId43"/>
-    <sheet name="79" sheetId="55" state="hidden" r:id="rId44"/>
-    <sheet name="80" sheetId="58" state="hidden" r:id="rId45"/>
-    <sheet name="81" sheetId="59" state="hidden" r:id="rId46"/>
-    <sheet name="82" sheetId="60" state="hidden" r:id="rId47"/>
-    <sheet name="83" sheetId="62" state="hidden" r:id="rId48"/>
-    <sheet name="84" sheetId="65" state="hidden" r:id="rId49"/>
-    <sheet name="85" sheetId="67" r:id="rId50"/>
-    <sheet name="86" sheetId="69" r:id="rId51"/>
+    <sheet name="Aula 7" sheetId="70" r:id="rId39"/>
+    <sheet name="76" sheetId="52" state="hidden" r:id="rId40"/>
+    <sheet name="77" sheetId="57" state="hidden" r:id="rId41"/>
+    <sheet name="78" sheetId="53" state="hidden" r:id="rId42"/>
+    <sheet name="79" sheetId="55" state="hidden" r:id="rId43"/>
+    <sheet name="80" sheetId="58" state="hidden" r:id="rId44"/>
+    <sheet name="81" sheetId="59" state="hidden" r:id="rId45"/>
+    <sheet name="82" sheetId="60" state="hidden" r:id="rId46"/>
+    <sheet name="83" sheetId="62" state="hidden" r:id="rId47"/>
+    <sheet name="84" sheetId="65" state="hidden" r:id="rId48"/>
+    <sheet name="85" sheetId="67" state="hidden" r:id="rId49"/>
+    <sheet name="86" sheetId="69" r:id="rId50"/>
+    <sheet name="88" sheetId="71" r:id="rId51"/>
+    <sheet name="89" sheetId="72" r:id="rId52"/>
+    <sheet name="90" sheetId="73" r:id="rId53"/>
+    <sheet name="91" sheetId="74" r:id="rId54"/>
+    <sheet name="92" sheetId="75" r:id="rId55"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="38">'Aula 7'!$A$1:$I$25</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -74,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="434">
   <si>
     <t>Lista de Compras</t>
   </si>
@@ -1289,27 +1296,6 @@
     <t xml:space="preserve"> - Formatação Condicional</t>
   </si>
   <si>
-    <t>Relembrar tabela Dinamica</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -  Mostar Proprieda</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Nbão pode ter campos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Nostrar detalhes no numero</t>
-  </si>
-  <si>
-    <t>- Criar campo calculado</t>
-  </si>
-  <si>
-    <t>Demonstar CAMPO CALCULADo</t>
-  </si>
-  <si>
-    <t>Pedir para Calcular CAMPO CALCULADO</t>
-  </si>
-  <si>
     <t>Mostrar Conciliação</t>
   </si>
   <si>
@@ -1319,34 +1305,109 @@
     <t>Correção da Conciliação</t>
   </si>
   <si>
-    <t>Mostrar Grtafico Dinamico</t>
-  </si>
-  <si>
-    <t>Pedir Grafico Dinamicco</t>
-  </si>
-  <si>
     <t>Mostrar Conexão De dados Dinamica</t>
   </si>
   <si>
     <t>Pedir Demonstração simnples de conexão</t>
   </si>
   <si>
-    <t>Exercicios de DAshBoard1</t>
-  </si>
-  <si>
-    <t>Exercicios DashBoard2</t>
-  </si>
-  <si>
-    <t>Imposrtação Dinamica de Arquivo Externo</t>
-  </si>
-  <si>
-    <t>Exercicios Oiportação Externa</t>
-  </si>
-  <si>
-    <t>Mostrar Importação</t>
-  </si>
-  <si>
-    <t>Mostrar Impressão</t>
+    <t>rever tabela dinamica</t>
+  </si>
+  <si>
+    <t>Intervalo nomeado</t>
+  </si>
+  <si>
+    <t>Grafico dinamico</t>
+  </si>
+  <si>
+    <t>conectar tabelas dinamicas</t>
+  </si>
+  <si>
+    <t>Substituir dados extrerno p/ tabela dinamica</t>
+  </si>
+  <si>
+    <t>Dash Board</t>
+  </si>
+  <si>
+    <t>fazerem Dinamica: SOMA, Contagem e %Coluna</t>
+  </si>
+  <si>
+    <t>Mostrar Dinamica Arquivo Externo acima de 1 Milhão</t>
+  </si>
+  <si>
+    <t>Relembrar tabela Dinamica e intervalo nomeado</t>
+  </si>
+  <si>
+    <t>Pedir para Calcular CAMPO CALCULADO = Margem, Margem %</t>
+  </si>
+  <si>
+    <t>pedir Criar Campo calculado</t>
+  </si>
+  <si>
+    <t>Pedir Criar Dinamica direta do TXT e Substituir anomes / Criar Campo calculado e Linha calculada</t>
+  </si>
+  <si>
+    <t>Demonstraçaõ grafico Dinamico</t>
+  </si>
+  <si>
+    <t>Exercicio grafico Dinamico c/Conexão de dados</t>
+  </si>
+  <si>
+    <t>Enxcerramento.</t>
+  </si>
+  <si>
+    <t>Trabalhar em dashBoard Impressão</t>
+  </si>
+  <si>
+    <t>1 -  Relembrar PROCV (0 e 1),  DEPOIS o SE, DEPOIS TABELA DINAMICA</t>
+  </si>
+  <si>
+    <t>2 - CONVERTER EM TABELA</t>
+  </si>
+  <si>
+    <t>3 - ADICIONAR DEZEMBRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Mostrar Agrupamentos por DATA e EVOLUCAO.</t>
+  </si>
+  <si>
+    <t>NÃO MOSTRAR CAMPOS CALCULADOS</t>
+  </si>
+  <si>
+    <t>Demonstar CAMPO CALCULADo Venda - Imposto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  Mostrar DUPLO CLIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Pedir para Eles Resumo por Vendedor,  - Evolulção POR VENDEDOR e CALSSIFICAÇÂO</t>
+  </si>
+  <si>
+    <t>Arquivo VENDAS E MARGEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Demandar o Calculo usando PROCV, Fazer tabela Dinamica.</t>
+  </si>
+  <si>
+    <t>- EXPLICAR COMO ELE AGRUPA E DEPOIS CALCULA: USAR COMO EXEMPLO O %IMPOSTO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - PEDIR PARA CALCULAREM A MARGEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - PEDIR PARA CALCULAREM %MARGEM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - EXPLICAR CAMPO CALCULADO: usar como Exemplo a Receita LIQUIDA (Vendas - Imposto).</t>
+  </si>
+  <si>
+    <t>Arquivo VENDAS WEB x TOTVS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Pedirem para Fazer os calculos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Mostrar COMO usar dinamica para fazer conciliação.</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1458,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1470,6 +1531,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1483,7 +1550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1519,6 +1586,7 @@
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6506,21 +6574,24 @@
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I48"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="51.7109375" customWidth="1"/>
+    <col min="5" max="5" width="80.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="15" customWidth="1"/>
     <col min="7" max="7" width="50.85546875" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F2" s="15" t="s">
         <v>112</v>
       </c>
@@ -6528,7 +6599,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>150</v>
       </c>
@@ -6544,11 +6615,8 @@
       <c r="E3" t="s">
         <v>107</v>
       </c>
-      <c r="H3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>6.9444444444444753E-3</v>
       </c>
@@ -6568,11 +6636,8 @@
       <c r="F4" s="15">
         <v>75</v>
       </c>
-      <c r="I4">
-        <v>6.9444444444444198E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -6581,96 +6646,84 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="C5" s="12">
-        <v>0.375</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="D5" s="12">
         <f t="shared" ref="D5:D19" si="1">C5-B5</f>
-        <v>1.3888888888888895E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="E5" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="F5" s="15">
         <v>76</v>
       </c>
-      <c r="I5">
-        <v>6.9444444444444753E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>1.3888888888888951E-2</v>
       </c>
       <c r="B6" s="12">
         <f t="shared" si="0"/>
-        <v>0.375</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="C6" s="12">
-        <v>0.38541666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="1"/>
-        <v>1.0416666666666685E-2</v>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F6" s="15">
         <v>77</v>
       </c>
-      <c r="I6">
-        <v>2.0833333333333315E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12">
         <f t="shared" si="0"/>
-        <v>0.38541666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C7" s="12">
-        <v>0.40277777777777773</v>
+        <v>0.40625</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="1"/>
-        <v>1.7361111111111049E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="F7" s="15">
         <v>77</v>
       </c>
-      <c r="I7">
-        <v>6.9444444444444198E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="B8" s="12">
         <f t="shared" si="0"/>
-        <v>0.40277777777777773</v>
+        <v>0.40625</v>
       </c>
       <c r="C8" s="12">
         <v>0.41666666666666669</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="1"/>
-        <v>1.3888888888888951E-2</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="F8" s="15">
         <v>78</v>
       </c>
-      <c r="I8">
-        <v>2.083333333333337E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>6.9444444444444198E-3</v>
       </c>
@@ -6678,98 +6731,84 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C9" s="12">
-        <v>0.4513888888888889</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="1"/>
-        <v>3.472222222222221E-2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>404</v>
-      </c>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="E9" s="14"/>
       <c r="F9" s="15">
         <v>79</v>
       </c>
-      <c r="I9">
-        <v>6.9444444444444198E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="B10" s="12">
         <f t="shared" si="0"/>
-        <v>0.4513888888888889</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="C10" s="12">
-        <v>0.45833333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="D10" s="12">
         <f>C10-B10</f>
-        <v>6.9444444444444198E-3</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F10" s="15">
         <v>79</v>
       </c>
-      <c r="I10">
-        <v>2.0833333333333315E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>6.9444444444444753E-3</v>
       </c>
       <c r="B11" s="12">
         <f t="shared" si="0"/>
-        <v>0.45833333333333331</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="C11" s="12">
-        <v>0.46875</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="1"/>
-        <v>1.0416666666666685E-2</v>
+        <v>2.7777777777777846E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="F11" s="15">
         <v>79</v>
       </c>
-      <c r="I11">
-        <v>6.9444444444444753E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>6.9444444444444753E-3</v>
       </c>
       <c r="B12" s="12">
         <f t="shared" si="0"/>
-        <v>0.46875</v>
+        <v>0.47222222222222227</v>
       </c>
       <c r="C12" s="12">
         <v>0.48958333333333331</v>
       </c>
       <c r="D12" s="12">
         <f>C12-B12</f>
-        <v>2.0833333333333315E-2</v>
+        <v>1.7361111111111049E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F12" s="15">
         <v>79</v>
       </c>
-      <c r="I12">
-        <v>0.13194444444444448</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>1.388888888888884E-2</v>
       </c>
@@ -6778,70 +6817,61 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="C13" s="12">
-        <v>0.54166666666666663</v>
+        <v>0.49305555555555558</v>
       </c>
       <c r="D13" s="12">
         <f t="shared" si="1"/>
-        <v>5.2083333333333315E-2</v>
+        <v>3.4722222222222654E-3</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>411</v>
       </c>
       <c r="F13" s="15">
         <v>81</v>
       </c>
-      <c r="I13">
-        <v>2.0833333333333259E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="B14" s="12">
         <f t="shared" si="0"/>
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C14" s="12">
         <v>0.54166666666666663</v>
-      </c>
-      <c r="C14" s="12">
-        <v>0.55208333333333337</v>
       </c>
       <c r="D14" s="12">
         <f t="shared" si="1"/>
-        <v>1.0416666666666741E-2</v>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>408</v>
-      </c>
-      <c r="I14">
-        <v>1.3888888888888951E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="B15" s="12">
         <f t="shared" si="0"/>
-        <v>0.55208333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C15" s="12">
         <v>0.5625</v>
       </c>
       <c r="D15" s="12">
         <f t="shared" si="1"/>
-        <v>1.041666666666663E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F15" s="15">
         <v>82</v>
       </c>
-      <c r="I15">
-        <v>2.083333333333337E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>1.0416666666666685E-2</v>
       </c>
@@ -6850,86 +6880,77 @@
         <v>0.5625</v>
       </c>
       <c r="C16" s="12">
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D16" s="12">
         <f t="shared" si="1"/>
-        <v>4.166666666666663E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="E16" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F16" s="15">
         <v>82</v>
       </c>
-      <c r="I16">
-        <v>1.388888888888884E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>6.9444444444444753E-3</v>
       </c>
       <c r="B17" s="12">
         <f t="shared" si="0"/>
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C17" s="12">
-        <v>0.625</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="D17" s="12">
         <f t="shared" si="1"/>
-        <v>2.083333333333337E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F17" s="15">
         <v>83</v>
       </c>
-      <c r="I17">
-        <v>1.388888888888884E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="B18" s="12">
         <f t="shared" si="0"/>
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C18" s="12">
         <v>0.625</v>
-      </c>
-      <c r="C18" s="12">
-        <v>0.63888888888888895</v>
       </c>
       <c r="D18" s="12">
         <f t="shared" si="1"/>
-        <v>1.3888888888888951E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="F18" s="15">
         <v>84</v>
       </c>
-      <c r="I18">
-        <v>2.083333333333337E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="B19" s="12">
         <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="C19" s="12">
         <v>0.63888888888888895</v>
-      </c>
-      <c r="C19" s="12">
-        <v>0.65972222222222221</v>
       </c>
       <c r="D19" s="12">
         <f t="shared" si="1"/>
-        <v>2.0833333333333259E-2</v>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="E19" t="s">
         <v>413</v>
@@ -6937,58 +6958,52 @@
       <c r="F19" s="15">
         <v>84</v>
       </c>
-      <c r="I19">
-        <v>1.388888888888884E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="B20" s="12">
         <f>C19</f>
-        <v>0.65972222222222221</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="C20" s="12">
-        <v>0.66666666666666663</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="D20" s="12">
         <f>C20-B20</f>
-        <v>6.9444444444444198E-3</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>414</v>
       </c>
       <c r="F20" s="15">
         <v>84</v>
       </c>
-      <c r="I20">
-        <v>-2.083333333333337E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>2.4305555555555525E-2</v>
       </c>
       <c r="B21" s="12">
         <f>C20</f>
-        <v>0.66666666666666663</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="C21" s="12">
         <v>0.69444444444444453</v>
       </c>
       <c r="D21" s="12">
         <f>C21-B21</f>
-        <v>2.7777777777777901E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="E21" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F21" s="15">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>2.4305555555555525E-2</v>
       </c>
@@ -7010,188 +7025,176 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F23"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F24"/>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F25"/>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F27"/>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F28"/>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F29"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F30"/>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F31"/>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32"/>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="29" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="29" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="29" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E39" s="29" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F39"/>
+      <c r="G39"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E41" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="F41" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+      <c r="F42" s="15">
+        <f>2*30</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>392</v>
+      </c>
+      <c r="F43" s="15">
+        <f>2*30</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="F44" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+      <c r="F45" s="15">
+        <f>3*30</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E46" s="29" t="s">
+        <v>403</v>
+      </c>
+      <c r="F46" s="15">
+        <f>3*30</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
-        <v>395</v>
+        <v>406</v>
+      </c>
+      <c r="F47" s="15">
+        <f>2*60</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F48" s="15">
+        <f>8*60</f>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7298,18 +7301,6 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -7351,7 +7342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7376,7 +7367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7409,7 +7400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7450,7 +7441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7482,7 +7473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7532,7 +7523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7559,7 +7550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7677,12 +7668,60 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7790,7 +7829,21 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E15"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -7808,62 +7861,185 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
         <v>386</v>
       </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B6"/>
+  <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>400</v>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/Professor/Material de Acompanhamento_v3.xlsx
+++ b/Professor/Material de Acompanhamento_v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="38" activeTab="54"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="38" activeTab="60"/>
   </bookViews>
   <sheets>
     <sheet name="Aula 1" sheetId="17" state="hidden" r:id="rId1"/>
@@ -51,22 +51,28 @@
     <sheet name="Aula 6" sheetId="54" state="hidden" r:id="rId37"/>
     <sheet name="72" sheetId="47" state="hidden" r:id="rId38"/>
     <sheet name="Aula 7" sheetId="70" r:id="rId39"/>
-    <sheet name="76" sheetId="52" state="hidden" r:id="rId40"/>
-    <sheet name="77" sheetId="57" state="hidden" r:id="rId41"/>
-    <sheet name="78" sheetId="53" state="hidden" r:id="rId42"/>
-    <sheet name="79" sheetId="55" state="hidden" r:id="rId43"/>
-    <sheet name="80" sheetId="58" state="hidden" r:id="rId44"/>
-    <sheet name="81" sheetId="59" state="hidden" r:id="rId45"/>
-    <sheet name="82" sheetId="60" state="hidden" r:id="rId46"/>
-    <sheet name="83" sheetId="62" state="hidden" r:id="rId47"/>
-    <sheet name="84" sheetId="65" state="hidden" r:id="rId48"/>
-    <sheet name="85" sheetId="67" state="hidden" r:id="rId49"/>
-    <sheet name="86" sheetId="69" r:id="rId50"/>
-    <sheet name="88" sheetId="71" r:id="rId51"/>
-    <sheet name="89" sheetId="72" r:id="rId52"/>
-    <sheet name="90" sheetId="73" r:id="rId53"/>
-    <sheet name="91" sheetId="74" r:id="rId54"/>
-    <sheet name="92" sheetId="75" r:id="rId55"/>
+    <sheet name="Planilha5" sheetId="81" r:id="rId40"/>
+    <sheet name="76" sheetId="52" state="hidden" r:id="rId41"/>
+    <sheet name="77" sheetId="57" state="hidden" r:id="rId42"/>
+    <sheet name="78" sheetId="53" state="hidden" r:id="rId43"/>
+    <sheet name="79" sheetId="55" state="hidden" r:id="rId44"/>
+    <sheet name="80" sheetId="58" state="hidden" r:id="rId45"/>
+    <sheet name="81" sheetId="59" state="hidden" r:id="rId46"/>
+    <sheet name="82" sheetId="60" state="hidden" r:id="rId47"/>
+    <sheet name="83" sheetId="62" state="hidden" r:id="rId48"/>
+    <sheet name="84" sheetId="65" state="hidden" r:id="rId49"/>
+    <sheet name="85" sheetId="67" state="hidden" r:id="rId50"/>
+    <sheet name="86" sheetId="69" r:id="rId51"/>
+    <sheet name="88" sheetId="71" r:id="rId52"/>
+    <sheet name="89" sheetId="72" r:id="rId53"/>
+    <sheet name="90" sheetId="73" r:id="rId54"/>
+    <sheet name="91" sheetId="74" r:id="rId55"/>
+    <sheet name="92" sheetId="75" r:id="rId56"/>
+    <sheet name="93" sheetId="77" r:id="rId57"/>
+    <sheet name="94" sheetId="78" r:id="rId58"/>
+    <sheet name="95" sheetId="79" r:id="rId59"/>
+    <sheet name="96" sheetId="80" r:id="rId60"/>
+    <sheet name="97" sheetId="82" r:id="rId61"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="38">'Aula 7'!$A$1:$I$25</definedName>
@@ -81,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="449">
   <si>
     <t>Lista de Compras</t>
   </si>
@@ -1408,6 +1414,51 @@
   </si>
   <si>
     <t xml:space="preserve"> - Mostrar COMO usar dinamica para fazer conciliação.</t>
+  </si>
+  <si>
+    <t>Arquivo BANCO.xlxs</t>
+  </si>
+  <si>
+    <t>Arqivo Forncedores txt.</t>
+  </si>
+  <si>
+    <t>-lembrar o flag "adicionar dados aos modelo de dados"</t>
+  </si>
+  <si>
+    <t>Arquivo xpto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  pedirem para reparar na contgem de registros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Pedirem para adicionar /  trocar o arquivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  pedir para atualizar o arquivo na pasta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  mencionar as opções de segmentação:</t>
+  </si>
+  <si>
+    <t>Pedirem para usar arquivo CARROS.</t>
+  </si>
+  <si>
+    <t>Depois de mnontarem, pedirem para atualziar a base de dados.</t>
+  </si>
+  <si>
+    <t>Arquivo carros</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Pedirem para fazer com 2015 e 2014.</t>
+  </si>
+  <si>
+    <t>- Pedir graficos</t>
+  </si>
+  <si>
+    <t>usar arquivo carros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  substituir o arquivo ano mês.</t>
   </si>
 </sst>
 </file>
@@ -6580,7 +6631,7 @@
   <dimension ref="A2:G48"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7301,6 +7352,18 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -7342,7 +7405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7367,7 +7430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7400,7 +7463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7441,7 +7504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7473,7 +7536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7523,7 +7586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7550,7 +7613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7668,60 +7731,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>386</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7829,6 +7844,54 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7841,7 +7904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E27"/>
   <sheetViews>
@@ -7920,7 +7983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D4"/>
   <sheetViews>
@@ -7947,7 +8010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E10"/>
   <sheetViews>
@@ -7990,7 +8053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
@@ -8013,12 +8076,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8040,6 +8103,105 @@
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>433</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="D6" s="27"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -8459,6 +8621,72 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>

--- a/Professor/Material de Acompanhamento_v3.xlsx
+++ b/Professor/Material de Acompanhamento_v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="38" activeTab="60"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" firstSheet="38" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="Aula 1" sheetId="17" state="hidden" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <sheet name="83" sheetId="62" state="hidden" r:id="rId48"/>
     <sheet name="84" sheetId="65" state="hidden" r:id="rId49"/>
     <sheet name="85" sheetId="67" state="hidden" r:id="rId50"/>
-    <sheet name="86" sheetId="69" r:id="rId51"/>
+    <sheet name="87" sheetId="69" r:id="rId51"/>
     <sheet name="88" sheetId="71" r:id="rId52"/>
     <sheet name="89" sheetId="72" r:id="rId53"/>
     <sheet name="90" sheetId="73" r:id="rId54"/>
@@ -73,6 +73,9 @@
     <sheet name="95" sheetId="79" r:id="rId59"/>
     <sheet name="96" sheetId="80" r:id="rId60"/>
     <sheet name="97" sheetId="82" r:id="rId61"/>
+    <sheet name="98" sheetId="83" r:id="rId62"/>
+    <sheet name="99" sheetId="85" r:id="rId63"/>
+    <sheet name="100" sheetId="86" r:id="rId64"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="38">'Aula 7'!$A$1:$I$25</definedName>
@@ -87,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="462">
   <si>
     <t>Lista de Compras</t>
   </si>
@@ -1371,9 +1374,6 @@
     <t>2 - CONVERTER EM TABELA</t>
   </si>
   <si>
-    <t>3 - ADICIONAR DEZEMBRO</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Mostrar Agrupamentos por DATA e EVOLUCAO.</t>
   </si>
   <si>
@@ -1425,9 +1425,6 @@
     <t>-lembrar o flag "adicionar dados aos modelo de dados"</t>
   </si>
   <si>
-    <t>Arquivo xpto</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -  pedirem para reparar na contgem de registros.</t>
   </si>
   <si>
@@ -1440,9 +1437,6 @@
     <t xml:space="preserve"> -  mencionar as opções de segmentação:</t>
   </si>
   <si>
-    <t>Pedirem para usar arquivo CARROS.</t>
-  </si>
-  <si>
     <t>Depois de mnontarem, pedirem para atualziar a base de dados.</t>
   </si>
   <si>
@@ -1452,13 +1446,61 @@
     <t xml:space="preserve"> - Pedirem para fazer com 2015 e 2014.</t>
   </si>
   <si>
-    <t>- Pedir graficos</t>
-  </si>
-  <si>
     <t>usar arquivo carros.</t>
   </si>
   <si>
-    <t xml:space="preserve"> -  substituir o arquivo ano mês.</t>
+    <t xml:space="preserve"> - Explicar que se fosse o normal, teriam que resumir antes os dados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Fazer agrupamento de Periodo e dar o duplo clique par amostrar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Explicar o mostrar detalhes</t>
+  </si>
+  <si>
+    <t>3 - ADICIONAR DEZEMBRO (aba oculta)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  Pedir para fazer ccom Fabricante e Depois Modelo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Somente graficos de BARRA</t>
+  </si>
+  <si>
+    <t>Não tem arquivo:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - relembramos como funciona o SE:</t>
+  </si>
+  <si>
+    <t>Relembrar intervalo nomeado</t>
+  </si>
+  <si>
+    <t>tabela Dinamcca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Mostrar Como fazer o Proprio AGRUPAMENTO (EX: time de vendedor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Moastrar Classificação</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Na hora dos filtros,. Mostrar o camiho pela guia Pagina Inicial, Selecionar, IR pARA ESPECIAL, celuas visiveis</t>
+  </si>
+  <si>
+    <t>ENSINAR FORMULA DATA (ano, mês, dia)</t>
+  </si>
+  <si>
+    <t>Depois, Pedirem para usar arquivo CARROS.</t>
+  </si>
+  <si>
+    <t>Arquivo notas fiscais</t>
+  </si>
+  <si>
+    <t>Dashboard: arquivo VENDA DE CARROS</t>
+  </si>
+  <si>
+    <t>Dashboard: arquivo VENDA DE CARROS &gt; Só abrir pois usaremos para o SLIDE 100</t>
   </si>
 </sst>
 </file>
@@ -6630,8 +6672,8 @@
   </sheetPr>
   <dimension ref="A2:G48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6746,7 +6788,7 @@
         <v>1.0416666666666685E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F7" s="15">
         <v>77</v>
@@ -7892,24 +7934,50 @@
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E27"/>
+  <dimension ref="B2:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7934,49 +8002,59 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>384</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>423</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -7995,14 +8073,14 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -8015,14 +8093,14 @@
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -8030,22 +8108,22 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8136,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8068,7 +8146,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -8078,17 +8156,17 @@
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F5"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -8097,12 +8175,22 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>433</v>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -8122,7 +8210,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C2" s="27"/>
     </row>
@@ -8136,7 +8224,7 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8146,25 +8234,25 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="27" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="D6" s="27"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -8177,31 +8265,31 @@
   <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -8626,14 +8714,14 @@
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -8642,7 +8730,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -8652,35 +8740,119 @@
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D9"/>
+  <dimension ref="B3:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>445</v>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>448</v>
       </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>442</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
